--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_797.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_797.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d77678-Reviews-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>161</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Travelodge-By-Wyndham-Long-Beach-Convention-Center.h26736.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_797.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_797.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="700">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1992 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r590434301-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>77678</t>
+  </si>
+  <si>
+    <t>590434301</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>LOCATION, LOCATION, LOCATION</t>
+  </si>
+  <si>
+    <t>Was attending a convention @ the Long Beach Convention Center, so this was a good place to stay. The hotel was a good deal for the money and was only 1/2 mile from the convention center and close to Von's Supermarket and many restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Hotel Manager at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Was attending a convention @ the Long Beach Convention Center, so this was a good place to stay. The hotel was a good deal for the money and was only 1/2 mile from the convention center and close to Von's Supermarket and many restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r582672071-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>582672071</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Central location</t>
+  </si>
+  <si>
+    <t>Ok hotel, can be a lot of homeless outside on street at times. Close to restaurants and a Vons. Walking distance to convention center and aquarium. Has soap and shampoo dispensers on shower wall and by sink. In process of remodel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Hotel Manager at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Ok hotel, can be a lot of homeless outside on street at times. Close to restaurants and a Vons. Walking distance to convention center and aquarium. Has soap and shampoo dispensers on shower wall and by sink. In process of remodel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r582647404-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>582647404</t>
+  </si>
+  <si>
+    <t>cleanliness</t>
+  </si>
+  <si>
+    <t>Construction worker sleeping in bed and no resolution from staff. change of room, area was dirty going to second level of motel. Room smelled like cigarette smoke and notified staff, but no other rooms available except for the one that the worker was sleeping inMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Hotel Manager at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Construction worker sleeping in bed and no resolution from staff. change of room, area was dirty going to second level of motel. Room smelled like cigarette smoke and notified staff, but no other rooms available except for the one that the worker was sleeping inMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r575269510-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>575269510</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>“NO ROOM IN THE INN???”</t>
+  </si>
+  <si>
+    <t>Travelodge! You said “YES! THERE IS ROOM IN THE INN!” Restaurant, grocery, and the beach right at our fingertips! At a price that we could not believe! You proved excellent! We will return! Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Hotel Manager at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Travelodge! You said “YES! THERE IS ROOM IN THE INN!” Restaurant, grocery, and the beach right at our fingertips! At a price that we could not believe! You proved excellent! We will return! Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r573836654-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>573836654</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Room came with dirty sheets and a Crack Pipe.</t>
+  </si>
+  <si>
+    <t>Room was dirty. Carpet as so bad had to have shoes and socks on.  When I pulled back the bedding a Crack Pipe fell on the floor.  Sheets appeared unchanged.  Went to main Desk right away.  They did not investigate, call Police or appear concerned.  Moved us to another room which was also dirty.  We drove from Northern Oregon to Long Beach in 1 day in order to board our Cruise Ship the next morning.  Too tired to hunt for another place to stay.  The next morning when we checked out we did not get an apology, a discount or the smallest of acknowledgement that we had been exposed to drugs in their facility.  When I had Booking agency look into it, the Dump felt they owed us nothing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was dirty. Carpet as so bad had to have shoes and socks on.  When I pulled back the bedding a Crack Pipe fell on the floor.  Sheets appeared unchanged.  Went to main Desk right away.  They did not investigate, call Police or appear concerned.  Moved us to another room which was also dirty.  We drove from Northern Oregon to Long Beach in 1 day in order to board our Cruise Ship the next morning.  Too tired to hunt for another place to stay.  The next morning when we checked out we did not get an apology, a discount or the smallest of acknowledgement that we had been exposed to drugs in their facility.  When I had Booking agency look into it, the Dump felt they owed us nothing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r565360177-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>565360177</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Worst Place Ever!!!</t>
+  </si>
+  <si>
+    <t>I booked this for our soccer club with a group reservation rate and when we checked in they refused to honor the rate.  We ended up leaving and not staying.  Worst customer service ever.  This place is a rip off.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Manager at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>I booked this for our soccer club with a group reservation rate and when we checked in they refused to honor the rate.  We ended up leaving and not staying.  Worst customer service ever.  This place is a rip off.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r549057263-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>549057263</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Location ok, but doesn't make up for the rest</t>
+  </si>
+  <si>
+    <t>This was a horrible dump. I don't know how they stay in business, not having the basics that pretty much any hotel has these days. To start, the elevator smelled like death (and the walls were carpeted, holding in the death smell forever). Getting out, we walked down  an ugly, bleak hallway to our ugly, bleak room. The death bells tolled as we saw that the room right next door was open and under heavy construction. As we entered the room, the construction guy next door came over and was like "yeah, we'll be working for about four more hours." So why on earth would the desk clerk give us this particular room???? So we went back in the death elevator to the desk where we got another room and schlepped our luggage to it. The furniture was mismatched and probably would not sell for $6 in a garage sale. Pros: we did not die, the internet worked, and we were only staying one night. Oh, and we paid $136 for this beauty.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2017</t>
+  </si>
+  <si>
+    <t>This was a horrible dump. I don't know how they stay in business, not having the basics that pretty much any hotel has these days. To start, the elevator smelled like death (and the walls were carpeted, holding in the death smell forever). Getting out, we walked down  an ugly, bleak hallway to our ugly, bleak room. The death bells tolled as we saw that the room right next door was open and under heavy construction. As we entered the room, the construction guy next door came over and was like "yeah, we'll be working for about four more hours." So why on earth would the desk clerk give us this particular room???? So we went back in the death elevator to the desk where we got another room and schlepped our luggage to it. The furniture was mismatched and probably would not sell for $6 in a garage sale. Pros: we did not die, the internet worked, and we were only staying one night. Oh, and we paid $136 for this beauty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r544102906-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>544102906</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Great location next to grocery store and dining, but old and no-frills</t>
+  </si>
+  <si>
+    <t>Clean, not bad, just old. Excellent restaurant downstairs! Fantastic place for breakfast. Nice grocery store next door. I stayed for a business trip and it was perfectly adequate and well-priced, but definitely a little shabby.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Clean, not bad, just old. Excellent restaurant downstairs! Fantastic place for breakfast. Nice grocery store next door. I stayed for a business trip and it was perfectly adequate and well-priced, but definitely a little shabby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r543859771-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>543859771</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r521471507-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>521471507</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Something in the water at this place.</t>
+  </si>
+  <si>
+    <t>The property name would suggest a civc-minded attitude.  Afraid not. Everyone I encountered at the desk had the "customer is wrong" attitude, it seemed, and the motel in general was cold.  The room phone came with a list of regulations that told me just to stay away from it if I didn't want go be hit with ridiculous extra charges, and I stayed away.  The elevator was slow to come when buzzed, but then the door slams shut in an instant.  No breakfast, and while the coffee in the room was OK, no artificial sweetener was available. No explanation--they just don't have it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>The property name would suggest a civc-minded attitude.  Afraid not. Everyone I encountered at the desk had the "customer is wrong" attitude, it seemed, and the motel in general was cold.  The room phone came with a list of regulations that told me just to stay away from it if I didn't want go be hit with ridiculous extra charges, and I stayed away.  The elevator was slow to come when buzzed, but then the door slams shut in an instant.  No breakfast, and while the coffee in the room was OK, no artificial sweetener was available. No explanation--they just don't have it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r514831247-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>514831247</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Location was convenient for the convention center. Staff...</t>
+  </si>
+  <si>
+    <t>Location was convenient for the convention center. Staff was friendly and price wasn't bad. Parking lot is very small but all parking in long beach sucks. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Location was convenient for the convention center. Staff was friendly and price wasn't bad. Parking lot is very small but all parking in long beach sucks. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r511039573-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>511039573</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r504835441-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>504835441</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Renovated</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights on business. The rooms have been upgraded and renovated nicely. The fit and finish was not the best, fresh paint, tile floors, upgraded TV and blinds was nice. Had a problem with the plumbing so they had me moved to another room without a fuss. The outside needs an upgrade to match the inside. It is only a 15 minute walk to the Long Beach Convention Center, close to Vons and alot of places to eat. I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights on business. The rooms have been upgraded and renovated nicely. The fit and finish was not the best, fresh paint, tile floors, upgraded TV and blinds was nice. Had a problem with the plumbing so they had me moved to another room without a fuss. The outside needs an upgrade to match the inside. It is only a 15 minute walk to the Long Beach Convention Center, close to Vons and alot of places to eat. I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r502200423-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>502200423</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r496500295-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>496500295</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Horrible place, ZERO STARS - low end room - NO INTERNET</t>
+  </si>
+  <si>
+    <t>Horrible place, ZERO STARS - low end room, stinky, noisy, ice machine noise all night,  dirty, NO INTERNET, I spent 3 hours trying to get internet to no avail, just lame excuses, Stay away, and the manager Dennis is a liar, promised to credit the room but still charged, STAY AWAY from these cheatersMoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Horrible place, ZERO STARS - low end room, stinky, noisy, ice machine noise all night,  dirty, NO INTERNET, I spent 3 hours trying to get internet to no avail, just lame excuses, Stay away, and the manager Dennis is a liar, promised to credit the room but still charged, STAY AWAY from these cheatersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r492213342-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>492213342</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r490235106-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>490235106</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>It started bad, the room that i was given was not clean and...</t>
+  </si>
+  <si>
+    <t>It started bad, the room that i was given was not clean and done. When i went back to the fron t desk they gave me a new room and it was amazing accomdations. It was better than the original room. Parking was a hassle not enough parking places.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>It started bad, the room that i was given was not clean and done. When i went back to the fron t desk they gave me a new room and it was amazing accomdations. It was better than the original room. Parking was a hassle not enough parking places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r490128591-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>490128591</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r483560087-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>483560087</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best location </t>
+  </si>
+  <si>
+    <t>I think it's a great hotel, it's close to business establishments and restaurants. It was close to the jazz festival. The staff was very helpful and attentive. Best of all was the location of the hotel and the service was excellent. If I have the opportunity to go to the same city, I would definitely stay at the same hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>I think it's a great hotel, it's close to business establishments and restaurants. It was close to the jazz festival. The staff was very helpful and attentive. Best of all was the location of the hotel and the service was excellent. If I have the opportunity to go to the same city, I would definitely stay at the same hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r482929043-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>482929043</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r469144237-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>469144237</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Not a Luxury Hotel, But very good deal.</t>
+  </si>
+  <si>
+    <t>It's not a Ritz Carlton, but it has Good location, good price, spacious room, Clean, small balcony, free parking ( a must in LB) Free internetBetter than a motel 6! Too bad the staff is not very friendly!But I will go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>It's not a Ritz Carlton, but it has Good location, good price, spacious room, Clean, small balcony, free parking ( a must in LB) Free internetBetter than a motel 6! Too bad the staff is not very friendly!But I will go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r439203686-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>439203686</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheap accommodation </t>
+  </si>
+  <si>
+    <t>This was another cheap place booked as we were only in Long Beach for one night until we left for our cruise to Mexico. Service was not very good at all, no smile no help no nothing. Room was nice and big and comfortable and it is certainly well located near everything you could need. Bathroom was the smallest I've ever seen in a hotel, the door barely opened past the toilet. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded November 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2016</t>
+  </si>
+  <si>
+    <t>This was another cheap place booked as we were only in Long Beach for one night until we left for our cruise to Mexico. Service was not very good at all, no smile no help no nothing. Room was nice and big and comfortable and it is certainly well located near everything you could need. Bathroom was the smallest I've ever seen in a hotel, the door barely opened past the toilet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r428927971-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>428927971</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Most Horrible Hotel Stay</t>
+  </si>
+  <si>
+    <t>Being a weekly traveler, lets just say I have stayed in hundreds of hotels over the past 16 years. 
+On a recent trip to Long Beach CA. I accidentally booked a room in the Travelodge; with limited space in town, I decided to stay. Once in the room, I realized I probably shouldve gone elsewhere, but thought, it cant be that bad.
+I was there 4 nights, not ONCE during my stay did I experience any warm water, I wouldve preferred hot water, but it never got warm. It made for some qick showers. The carpet was nasty &amp; warn in several places. Definitely needed slippers or flip flops here. The towels were more like cheap paper towels. 
+The parking lot was very small and I was blocked in 2 of my 4 days of staying there. I questioned the desk clerk about moving cars to get my vehicle out, I was told I would have to wait for the csr owners to move them. I questioned the staff about the water &amp; was told the problem was being worked on.!! Additional towels were given to me, but they were all just as thin, almost transparent. I left notes to have bulbs placed the lamps, this was never done. The only light came from the bathroom near the entry door to the room.
+Checking was the best experience for me in a very ling time. Under no circumstances will I...Being a weekly traveler, lets just say I have stayed in hundreds of hotels over the past 16 years. On a recent trip to Long Beach CA. I accidentally booked a room in the Travelodge; with limited space in town, I decided to stay. Once in the room, I realized I probably shouldve gone elsewhere, but thought, it cant be that bad.I was there 4 nights, not ONCE during my stay did I experience any warm water, I wouldve preferred hot water, but it never got warm. It made for some qick showers. The carpet was nasty &amp; warn in several places. Definitely needed slippers or flip flops here. The towels were more like cheap paper towels. The parking lot was very small and I was blocked in 2 of my 4 days of staying there. I questioned the desk clerk about moving cars to get my vehicle out, I was told I would have to wait for the csr owners to move them. I questioned the staff about the water &amp; was told the problem was being worked on.!! Additional towels were given to me, but they were all just as thin, almost transparent. I left notes to have bulbs placed the lamps, this was never done. The only light came from the bathroom near the entry door to the room.Checking was the best experience for me in a very ling time. Under no circumstances will I ever revisit this hotel.!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Being a weekly traveler, lets just say I have stayed in hundreds of hotels over the past 16 years. 
+On a recent trip to Long Beach CA. I accidentally booked a room in the Travelodge; with limited space in town, I decided to stay. Once in the room, I realized I probably shouldve gone elsewhere, but thought, it cant be that bad.
+I was there 4 nights, not ONCE during my stay did I experience any warm water, I wouldve preferred hot water, but it never got warm. It made for some qick showers. The carpet was nasty &amp; warn in several places. Definitely needed slippers or flip flops here. The towels were more like cheap paper towels. 
+The parking lot was very small and I was blocked in 2 of my 4 days of staying there. I questioned the desk clerk about moving cars to get my vehicle out, I was told I would have to wait for the csr owners to move them. I questioned the staff about the water &amp; was told the problem was being worked on.!! Additional towels were given to me, but they were all just as thin, almost transparent. I left notes to have bulbs placed the lamps, this was never done. The only light came from the bathroom near the entry door to the room.
+Checking was the best experience for me in a very ling time. Under no circumstances will I...Being a weekly traveler, lets just say I have stayed in hundreds of hotels over the past 16 years. On a recent trip to Long Beach CA. I accidentally booked a room in the Travelodge; with limited space in town, I decided to stay. Once in the room, I realized I probably shouldve gone elsewhere, but thought, it cant be that bad.I was there 4 nights, not ONCE during my stay did I experience any warm water, I wouldve preferred hot water, but it never got warm. It made for some qick showers. The carpet was nasty &amp; warn in several places. Definitely needed slippers or flip flops here. The towels were more like cheap paper towels. The parking lot was very small and I was blocked in 2 of my 4 days of staying there. I questioned the desk clerk about moving cars to get my vehicle out, I was told I would have to wait for the csr owners to move them. I questioned the staff about the water &amp; was told the problem was being worked on.!! Additional towels were given to me, but they were all just as thin, almost transparent. I left notes to have bulbs placed the lamps, this was never done. The only light came from the bathroom near the entry door to the room.Checking was the best experience for me in a very ling time. Under no circumstances will I ever revisit this hotel.!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r428290525-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>428290525</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>Upon or arrival to the hotel it was discovered that the hotel did not have a free shuttle like they stated on their website.  As that was the main reason for choosing the Travelodge I was very disappointed.  The manager refused to refund my reservation.  The hotel lobby was so filthy I didn't care to look at a room and therefore forfeited my reservation.  Hotels.com did refund a portion of my cost even though they were under no obligation to do so.  The hotel certainly did not look like the pictures that were posted on the website.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Upon or arrival to the hotel it was discovered that the hotel did not have a free shuttle like they stated on their website.  As that was the main reason for choosing the Travelodge I was very disappointed.  The manager refused to refund my reservation.  The hotel lobby was so filthy I didn't care to look at a room and therefore forfeited my reservation.  Hotels.com did refund a portion of my cost even though they were under no obligation to do so.  The hotel certainly did not look like the pictures that were posted on the website.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r410347317-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>410347317</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Scariest Hotel in Long Beach</t>
+  </si>
+  <si>
+    <t>There isn't anything positive to write about this hotel.At the time we were in Long Beach for business at the Convention Center, we thought that this hotel would be cost effective and convenient. Boy were we wrong!At the time of this trip I was using a knee cart due to foot problems. I had a handicap plaque for our car. There were no parking spaces in the lot, which they share with a breakfast cafe. So we ended up having to park our car at the convention center which was a half mile away and walk to the hotel during out stay. The elevator alarm (which was right outside our room) went off the first night we were there. After 20 minutes my husband went to ask the front desk if the would turn it off and they responded that they would 'try' to turn it off. Then there were the gang graffiti INSIDE THE ROOM! There was blood on the wall, a weird yellow stain on the sheets and a broken acrylic nail on the floor. I called Wyndham Hotels to complain and instead of issuing me a refund they gave me 15,000 Wyndham points for my next stay and an apology. Stay away from this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>There isn't anything positive to write about this hotel.At the time we were in Long Beach for business at the Convention Center, we thought that this hotel would be cost effective and convenient. Boy were we wrong!At the time of this trip I was using a knee cart due to foot problems. I had a handicap plaque for our car. There were no parking spaces in the lot, which they share with a breakfast cafe. So we ended up having to park our car at the convention center which was a half mile away and walk to the hotel during out stay. The elevator alarm (which was right outside our room) went off the first night we were there. After 20 minutes my husband went to ask the front desk if the would turn it off and they responded that they would 'try' to turn it off. Then there were the gang graffiti INSIDE THE ROOM! There was blood on the wall, a weird yellow stain on the sheets and a broken acrylic nail on the floor. I called Wyndham Hotels to complain and instead of issuing me a refund they gave me 15,000 Wyndham points for my next stay and an apology. Stay away from this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r404279973-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>404279973</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Convenient and cheap</t>
+  </si>
+  <si>
+    <t>Stayed 1 week in a double room.  Location is convenient to downtown and bus routes.The rooms are definitely somewhat dated and a bit daggy but most importantly our room was clean and well serviced each morning.The motel could defiantly do with some new equipment.  Our coffee pot did not work, no plug for bath, plastic chairs on balcony were a lawsuit waiting to happen, likewise the chairs around the pool.All in all we were happy considering the price and location to downtown Long Beach.  If you are accustomed to 4 or 5 star - look somewhere else .....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Stayed 1 week in a double room.  Location is convenient to downtown and bus routes.The rooms are definitely somewhat dated and a bit daggy but most importantly our room was clean and well serviced each morning.The motel could defiantly do with some new equipment.  Our coffee pot did not work, no plug for bath, plastic chairs on balcony were a lawsuit waiting to happen, likewise the chairs around the pool.All in all we were happy considering the price and location to downtown Long Beach.  If you are accustomed to 4 or 5 star - look somewhere else .....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r401096042-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>401096042</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Smelled like pee and cigarettes</t>
+  </si>
+  <si>
+    <t>Well I hate to complain but I'm going to have to.. the room smelled of urine and cigarettes!! They did put me on the Upper Floor as I ask but if you could stay somewhere else so I would recommend that.. there was a convention in town when I stay there they jacked up the room price to $160. Which is ridiculous for this run-down crappy Hotel I felt very ripped off.. next year I will plan better and definitely stay in a nice hotel and I'm a pretty simple girl but this place was pretty gross..MoreShow less</t>
+  </si>
+  <si>
+    <t>Well I hate to complain but I'm going to have to.. the room smelled of urine and cigarettes!! They did put me on the Upper Floor as I ask but if you could stay somewhere else so I would recommend that.. there was a convention in town when I stay there they jacked up the room price to $160. Which is ridiculous for this run-down crappy Hotel I felt very ripped off.. next year I will plan better and definitely stay in a nice hotel and I'm a pretty simple girl but this place was pretty gross..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r367445570-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>367445570</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Great price and location for Downtown LB</t>
+  </si>
+  <si>
+    <t>We have stayed here a few times. We like the rooms with a balcony. Can sit outside and relax and people watch. Beds are somewhat comfortable. Did hear some outside hallway noise this trip, but to be expected at times depending on who is walking by and doesn't care that others could be sleeping. There is a restaurant right next door, the last time we came it was a Mexican restaurant. This time was called The Breakfast Bar (I believe was the name) This place was packed both days we were there. We wanted to try it so badly, maybe next time. But there was always a wait, so it must be good. Staff has always been very friendly. This hotel is close to downtown and within walking distance to so many restaurants, bars and attractions including the Long Beach Aquarium. We never drive around town, we walk about 15-20 mins to get to The Pike area. Very relaxing out here. We came this visit for a Concert at the Queen Mary. Took a Taxi from just before The Pike area over to Queen Mary for about $12.50, would have been cheaper without traffic, as on way back was $8.00. We will definitely stay here again and actually already booked another trip for August for another concert at the Queen Mary.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed here a few times. We like the rooms with a balcony. Can sit outside and relax and people watch. Beds are somewhat comfortable. Did hear some outside hallway noise this trip, but to be expected at times depending on who is walking by and doesn't care that others could be sleeping. There is a restaurant right next door, the last time we came it was a Mexican restaurant. This time was called The Breakfast Bar (I believe was the name) This place was packed both days we were there. We wanted to try it so badly, maybe next time. But there was always a wait, so it must be good. Staff has always been very friendly. This hotel is close to downtown and within walking distance to so many restaurants, bars and attractions including the Long Beach Aquarium. We never drive around town, we walk about 15-20 mins to get to The Pike area. Very relaxing out here. We came this visit for a Concert at the Queen Mary. Took a Taxi from just before The Pike area over to Queen Mary for about $12.50, would have been cheaper without traffic, as on way back was $8.00. We will definitely stay here again and actually already booked another trip for August for another concert at the Queen Mary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r365875584-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>365875584</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Decided to try elsewhere</t>
+  </si>
+  <si>
+    <t>Looked at reviews before booking and thought it would be fine. There was all sorts of much needed construction and my room was supposed to be non smoking but it sure did not smell like it. Very cold looking and looking into other rooms was pretty nasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Looked at reviews before booking and thought it would be fine. There was all sorts of much needed construction and my room was supposed to be non smoking but it sure did not smell like it. Very cold looking and looking into other rooms was pretty nasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r358351644-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>358351644</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Not as bad as I had feared</t>
+  </si>
+  <si>
+    <t>After reading some of the reviews on this place I was a bit worried. Most of these worries proved to be unfounded as this hotel was ok and worked well for my needs. I attended a conference at the convention center and this hotel is within walking distance. Can also walk to the aquarium and resteraunts/shops downtown. Location is very good. Internet was free and worked well. Bathroom was clean. Room itself was a bit dated and the bed was uncomfortable. Loud place with the sounds of traffic and other folks going in and out at night. Book the conference hotel if you can, if you don't want to pay that money or the others are booked this place will work.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach1, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>After reading some of the reviews on this place I was a bit worried. Most of these worries proved to be unfounded as this hotel was ok and worked well for my needs. I attended a conference at the convention center and this hotel is within walking distance. Can also walk to the aquarium and resteraunts/shops downtown. Location is very good. Internet was free and worked well. Bathroom was clean. Room itself was a bit dated and the bed was uncomfortable. Loud place with the sounds of traffic and other folks going in and out at night. Book the conference hotel if you can, if you don't want to pay that money or the others are booked this place will work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r341970574-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>341970574</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>Friendly and profesional servise!</t>
+  </si>
+  <si>
+    <t>We came with our car, no as guest but absolutely perfect reception offered us parking lot for our car and internet conection.We are glad we got these services free. Its mean that this place is very good for all travelers and ready to help.Place around is clean and safety, very popular, we can recomend!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We came with our car, no as guest but absolutely perfect reception offered us parking lot for our car and internet conection.We are glad we got these services free. Its mean that this place is very good for all travelers and ready to help.Place around is clean and safety, very popular, we can recomend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r333771978-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>333771978</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>OK, but the pool is freezing!</t>
+  </si>
+  <si>
+    <t>This hotel is in a good location. You can walk to restaurants, the beach and bars. We had a balcony which was nice.  The hotel could use some updating but if you are just passing through and need a place to spend the night it's ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This hotel is in a good location. You can walk to restaurants, the beach and bars. We had a balcony which was nice.  The hotel could use some updating but if you are just passing through and need a place to spend the night it's ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r328780872-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>328780872</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Hotel needs updating. Good for 1 night's stay.</t>
+  </si>
+  <si>
+    <t>I was very reluctant to stay here as soon as I walked to my room.  The hallways and elevator looked more like a tenemant building than a hotel.  However, I was relieved when I got to my room. The room smelled fresh and clean as soon as I walked in. The furniture looked beaten up but the room was cozy. There was a flatscreen t.v. with cable and HBO as well as WiFi. A refrigerator was also in the room.  The bathroom needed some work but was clean and usable. I had a private balcony which was nice to people watch as I passed the time. The bed was comfortable and I had a good night's sleep. Great location and close to all of downtown activities and restaurants. I do think it was a too much money for the quality of the room. I am assuming it was due to it's location and the fact that it is close to all of downtown activities. It was good for the one night I was staying.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very reluctant to stay here as soon as I walked to my room.  The hallways and elevator looked more like a tenemant building than a hotel.  However, I was relieved when I got to my room. The room smelled fresh and clean as soon as I walked in. The furniture looked beaten up but the room was cozy. There was a flatscreen t.v. with cable and HBO as well as WiFi. A refrigerator was also in the room.  The bathroom needed some work but was clean and usable. I had a private balcony which was nice to people watch as I passed the time. The bed was comfortable and I had a good night's sleep. Great location and close to all of downtown activities and restaurants. I do think it was a too much money for the quality of the room. I am assuming it was due to it's location and the fact that it is close to all of downtown activities. It was good for the one night I was staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r311141209-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>311141209</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>We left and cut our losses</t>
+  </si>
+  <si>
+    <t>Read the reviews! All of the negative ones are correct.  Lesson learned for me, I will read them all from now on. Pay a little more and be safe and comfortable.  Down right dirty hotel!  We didn't stay long enough to take photos.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Read the reviews! All of the negative ones are correct.  Lesson learned for me, I will read them all from now on. Pay a little more and be safe and comfortable.  Down right dirty hotel!  We didn't stay long enough to take photos.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r306125512-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>306125512</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Nice surprise!</t>
+  </si>
+  <si>
+    <t>I planned to stay in a different hotel for 5 days but switched to this one and have no regrets. Good price, perfect location, free parking, Wi-Fi, fridge. It also has an elevator which was very convenient. The housekeeping team was very friendly and committed.I would recommend this property to all my friends or family visiting the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I planned to stay in a different hotel for 5 days but switched to this one and have no regrets. Good price, perfect location, free parking, Wi-Fi, fridge. It also has an elevator which was very convenient. The housekeeping team was very friendly and committed.I would recommend this property to all my friends or family visiting the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r299537895-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>299537895</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Wouldn't stay again!</t>
+  </si>
+  <si>
+    <t>The room sheets were stained, the bathtub drain was clogged and wouldn't drain properly, the towels were terrible and had hair on them. The trim on the room wasn't finished and the window looked like it had mould on it. Not a good experience at all!MoreShow less</t>
+  </si>
+  <si>
+    <t>The room sheets were stained, the bathtub drain was clogged and wouldn't drain properly, the towels were terrible and had hair on them. The trim on the room wasn't finished and the window looked like it had mould on it. Not a good experience at all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r283715355-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>283715355</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>We picked this hotel for a last minute business trip and we were sorry!  The hallway to the room was dark and dingy.  The elevator sounded and smelled like it was about to blow up.  The carpet was so filthy, I dropped a towel on the floor, stepped on it, picked it up and it was black!  There was human feces next to the elevator the first morning!  I should have left then.  The second morning there was a broken water pipe in the hallway and vomit in front of the entrance to the office!  Do not stay here.  So gross....MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded August 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2015</t>
+  </si>
+  <si>
+    <t>We picked this hotel for a last minute business trip and we were sorry!  The hallway to the room was dark and dingy.  The elevator sounded and smelled like it was about to blow up.  The carpet was so filthy, I dropped a towel on the floor, stepped on it, picked it up and it was black!  There was human feces next to the elevator the first morning!  I should have left then.  The second morning there was a broken water pipe in the hallway and vomit in front of the entrance to the office!  Do not stay here.  So gross....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r274571836-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>274571836</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>Definitely not worth the price. $140 for Motel 6 quality at best? Next time, I would rather pay $60 for a much better place in LAX area and drive if I have to. Very noisy place, I stayed at first floor and woke three times at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Definitely not worth the price. $140 for Motel 6 quality at best? Next time, I would rather pay $60 for a much better place in LAX area and drive if I have to. Very noisy place, I stayed at first floor and woke three times at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r269648785-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>269648785</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r262365592-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>262365592</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Very nice and clean. Within walking distance to the ocean...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and clean. Within walking distance to the ocean. Would definitely stay again.   </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r257578796-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>257578796</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>$100 a night for what?</t>
+  </si>
+  <si>
+    <t>This is a $55 a night hotel posing as one that believes it can charge $100...The property is old with a small parking lot, only one elevator on one side of the property, and a tiny box for a front desk.The rooms are small too and need new carpeting and they need to take those rediculous wooden blinds down as they do not black out the room.Towels were rather thin and tired like they need replacing.Furniture and beds need to be replaced as they are hard and of poor quality.Bathroom is tiny and there did seem to be hot water but the shower head sucked.Instead of wasting money on a pea sized pool that has gunk floating in it, just close it down and cement over it since it's not taken care of.No microwave in room.Not enough open outlets to plug your electronics in.The room keys are super sensitive so if you leave chances are it won't work when you come back.Housekeeping people are noisy and carry on loud conversations the whole motel can hear.Only pros I can say would be they had decent tv and fast enough internet.If you want to spend $100 a night and have it worth your money I suggest the comfort inn  or one of the best westerns.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>This is a $55 a night hotel posing as one that believes it can charge $100...The property is old with a small parking lot, only one elevator on one side of the property, and a tiny box for a front desk.The rooms are small too and need new carpeting and they need to take those rediculous wooden blinds down as they do not black out the room.Towels were rather thin and tired like they need replacing.Furniture and beds need to be replaced as they are hard and of poor quality.Bathroom is tiny and there did seem to be hot water but the shower head sucked.Instead of wasting money on a pea sized pool that has gunk floating in it, just close it down and cement over it since it's not taken care of.No microwave in room.Not enough open outlets to plug your electronics in.The room keys are super sensitive so if you leave chances are it won't work when you come back.Housekeeping people are noisy and carry on loud conversations the whole motel can hear.Only pros I can say would be they had decent tv and fast enough internet.If you want to spend $100 a night and have it worth your money I suggest the comfort inn  or one of the best westerns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r255689316-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>255689316</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Down Towns best Value</t>
+  </si>
+  <si>
+    <t>Close to Beach, good restaurants, clubs, local transportation,And fun in the sun! Balcony rooms are great and the have AAA discount. I have stayed many places in Long Beach this is the best value.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r252141785-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>252141785</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Bed good but it needs a good update</t>
+  </si>
+  <si>
+    <t>I do think they should charge less for rooms.  The bed was comfy but the room was run down and grungy.  I stayed in this motel 5 years ago and I doubt if they have updated anything.  It is a great location and cleaning staff does the best it can with the rooms.  If you are just looking for a a good bed, clean shower and sink this will serve your need.  If you look at the tears in the wall paper, the lamp,shades that are torn. The mattress covers that are half Thersa Nd a dark room this is your spot.  Itmwasmquietmat night and is convienent to downtown but I think you can do better.  I do not think I will ever stay there again.  I do think the evening and night staff were very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I do think they should charge less for rooms.  The bed was comfy but the room was run down and grungy.  I stayed in this motel 5 years ago and I doubt if they have updated anything.  It is a great location and cleaning staff does the best it can with the rooms.  If you are just looking for a a good bed, clean shower and sink this will serve your need.  If you look at the tears in the wall paper, the lamp,shades that are torn. The mattress covers that are half Thersa Nd a dark room this is your spot.  Itmwasmquietmat night and is convienent to downtown but I think you can do better.  I do not think I will ever stay there again.  I do think the evening and night staff were very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r251429480-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>251429480</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Great hotel, but expensive.</t>
+  </si>
+  <si>
+    <t>Great location, hotel is close to Ocean Blvd. Very quiet hotel, however with no many recreational options offered by the hotel, so I think the price is expensive. The hotel offers free wifi.The hotel does not offer breakfast.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r250557540-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>250557540</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Please think of another venue</t>
+  </si>
+  <si>
+    <t>This was a run down hotel, the bathroom toilet backed uo and the staff gave  me a plunger to rectify the problem, the walls were also paper thin. I could hear the person in the room next door snoring all night. I must admit though that the staff were quite pleasantMoreShow less</t>
+  </si>
+  <si>
+    <t>This was a run down hotel, the bathroom toilet backed uo and the staff gave  me a plunger to rectify the problem, the walls were also paper thin. I could hear the person in the room next door snoring all night. I must admit though that the staff were quite pleasantMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r243531458-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>243531458</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Worst Hotel ever!</t>
+  </si>
+  <si>
+    <t>Don't waste your time or money on this place. Looks nice from the outside. I used credit card points for a free night stay for a night before we departed for Catalina Island the next day. Got a non-smoking queen room. To start the room smelled like urine and mold, it was awful! The security latch on the door was broken, the carpet was damp and there were dark stains on the white sheets. The remote control to the TV had missing buttons, the bathroom door lock was broken and in the middle of the night we were awaken by police action down the hall. No elevator so we had to haul our luggage up the stairs (which was the least of our problems at this awful place!). I could not wait to get out of this place, yes it was that bad! I would advise you NOT to stay here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Don't waste your time or money on this place. Looks nice from the outside. I used credit card points for a free night stay for a night before we departed for Catalina Island the next day. Got a non-smoking queen room. To start the room smelled like urine and mold, it was awful! The security latch on the door was broken, the carpet was damp and there were dark stains on the white sheets. The remote control to the TV had missing buttons, the bathroom door lock was broken and in the middle of the night we were awaken by police action down the hall. No elevator so we had to haul our luggage up the stairs (which was the least of our problems at this awful place!). I could not wait to get out of this place, yes it was that bad! I would advise you NOT to stay here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r238374336-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>238374336</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>What a dump</t>
+  </si>
+  <si>
+    <t>We stayed here on the 10th October overnight prior to joining a cruise. The receptionist spoke very broken English, he had only just started there and obliviously had no training, We found our check-in painful. Once in our room it was very smelly and dirty. Found old grapes and a drink bottle next to the bed. Power points didn't work, coffee machines (2) broken, air conditioner sounded like a jet engine when on. Not knowing the area we asked the receptionist where we could buy toiletries and were given a shopping centre to go to, This trip was to cost us about $30, but the cab ride cot $70 and took nearly 30 mins. We found our later that we could have walked for 10 mins to a local Mall.Would not recommend this place to anyone!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here on the 10th October overnight prior to joining a cruise. The receptionist spoke very broken English, he had only just started there and obliviously had no training, We found our check-in painful. Once in our room it was very smelly and dirty. Found old grapes and a drink bottle next to the bed. Power points didn't work, coffee machines (2) broken, air conditioner sounded like a jet engine when on. Not knowing the area we asked the receptionist where we could buy toiletries and were given a shopping centre to go to, This trip was to cost us about $30, but the cab ride cot $70 and took nearly 30 mins. We found our later that we could have walked for 10 mins to a local Mall.Would not recommend this place to anyone!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r234778311-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>234778311</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Old rundown but has smoking room</t>
+  </si>
+  <si>
+    <t>The elevator was broken. We had a room on the 3 rd floor. The check in clerk helped us with our luggage ( the only bright spot). Behind the wall in the corner of our room was the housing for the exhaust fan for the downstairs restaurant. When it was on the room vibrated!! It was on when we arrived, off for a few hour in the evening and back on at 4 AM!!!!! NOT a good sleep was had by all.Not very clean run down room Bed OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>The elevator was broken. We had a room on the 3 rd floor. The check in clerk helped us with our luggage ( the only bright spot). Behind the wall in the corner of our room was the housing for the exhaust fan for the downstairs restaurant. When it was on the room vibrated!! It was on when we arrived, off for a few hour in the evening and back on at 4 AM!!!!! NOT a good sleep was had by all.Not very clean run down room Bed OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r204864094-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>204864094</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>First the cat spray, then the leftover chicken</t>
+  </si>
+  <si>
+    <t>I stayed in this dump for 3 nights.  The first room I was offered smelled as though a family of male cats had lived there for a week.  I literally could not breathe and had to back out of the room before the door closed behind me.  The second room offered didn't smell quite so bad, and had the added bonus of free food:  a leftover piece of fried chicken, half eaten, sitting on top of the TV.  Much more nourishing than the typical mint on the pillow.The toilet didn't flush properly.  The carpet was sticky.  The a/c was noisy.  The breezeways were painted and illuminated to recreate the ambiance of cellblock 18 in your county jail.Did I mention the cockroach?Stay away.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2014</t>
+  </si>
+  <si>
+    <t>I stayed in this dump for 3 nights.  The first room I was offered smelled as though a family of male cats had lived there for a week.  I literally could not breathe and had to back out of the room before the door closed behind me.  The second room offered didn't smell quite so bad, and had the added bonus of free food:  a leftover piece of fried chicken, half eaten, sitting on top of the TV.  Much more nourishing than the typical mint on the pillow.The toilet didn't flush properly.  The carpet was sticky.  The a/c was noisy.  The breezeways were painted and illuminated to recreate the ambiance of cellblock 18 in your county jail.Did I mention the cockroach?Stay away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r199933142-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>199933142</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r191335777-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>191335777</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Travelodge should take their name off of this place, it is a dirty, noisy rundown multi room shack.  We arrived to homeless people in the parking lot. The elevator smelled of urine.  Our coffee maker still had coffee from the previous guest along with the old grounds.  The pictures on the website must have been taken after the remodel from 30 years ago.  Prepay through Expedia left us stuck, never again use either Expedia or Travelodge. Our room backed up to a noisy street of rundown apartments, definitely not Long Beaches best area.  It was not a bad walk to the Convention Center but I would not stay just for that, pay a little more for across the street at The Courtyard.  Definitely would not stay here with kids.  Luckily we had a blanket in the car to sleep on top of, didn't want to chance sleeping in the bed with their linens.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Travelodge should take their name off of this place, it is a dirty, noisy rundown multi room shack.  We arrived to homeless people in the parking lot. The elevator smelled of urine.  Our coffee maker still had coffee from the previous guest along with the old grounds.  The pictures on the website must have been taken after the remodel from 30 years ago.  Prepay through Expedia left us stuck, never again use either Expedia or Travelodge. Our room backed up to a noisy street of rundown apartments, definitely not Long Beaches best area.  It was not a bad walk to the Convention Center but I would not stay just for that, pay a little more for across the street at The Courtyard.  Definitely would not stay here with kids.  Luckily we had a blanket in the car to sleep on top of, didn't want to chance sleeping in the bed with their linens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r181491613-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>181491613</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>No one is in charge</t>
+  </si>
+  <si>
+    <t>Went to the hotel for a race. No one knew what was going on. All of the people were new. Got to the room with peeling wallpaper and mold. Found out there was no tv service called the desk twice and finally got someone. No help said it was the cable company. Came backdrop the race and was chased out of the room by the maid even though I paid for a late checkout. Maid got the desk to call and chase us out. Forgot something in the room and tried to call and see if it was found. It took four calls just to get someone to answer and of course he was new and didn't know anything. It was the worse night I ever spent.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Went to the hotel for a race. No one knew what was going on. All of the people were new. Got to the room with peeling wallpaper and mold. Found out there was no tv service called the desk twice and finally got someone. No help said it was the cable company. Came backdrop the race and was chased out of the room by the maid even though I paid for a late checkout. Maid got the desk to call and chase us out. Forgot something in the room and tried to call and see if it was found. It took four calls just to get someone to answer and of course he was new and didn't know anything. It was the worse night I ever spent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r180876148-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>180876148</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r180434960-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>180434960</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Everything wrong</t>
+  </si>
+  <si>
+    <t>Besides the customer service at the front desk was great, I paid 102.31 for 1 night assuming that at that price were decent not even close the days inn was 89.11 and was the best stay I had. Now with this room I purchased I came in the portion off the wall had rust or mold, um the seats were dirty as heck only room, the only room they had left was smoking, the doors was dirty, there were black ink on the walls, the tub was terrible there was rust around it, the sink was stopped up and the tub as well. I was scared to sleep in the bed. Smh the days inn I will go back next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Besides the customer service at the front desk was great, I paid 102.31 for 1 night assuming that at that price were decent not even close the days inn was 89.11 and was the best stay I had. Now with this room I purchased I came in the portion off the wall had rust or mold, um the seats were dirty as heck only room, the only room they had left was smoking, the doors was dirty, there were black ink on the walls, the tub was terrible there was rust around it, the sink was stopped up and the tub as well. I was scared to sleep in the bed. Smh the days inn I will go back next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r176368239-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>176368239</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Open parking, close drive to convention ctr</t>
+  </si>
+  <si>
+    <t>Poor quality stay, stayed on 3rd fl above the office, you could hear outside chatter from the street, past 12am,  hallway noise, open parking, anyone could just ride their bike thru guest parking and I saw just that, couple times, no security guard to keep an eye on guests vehicle, that didn't put me at ease. room was smelly on arrival.   After AC gets going it goes away.  Not a pleasant welcome, not a clean feeling welcome, though at a glance all looks fearly clean, went to Von's and got bleach wipes to disinfect counters.   another annoying thing was, we pre paid thru booking.com for three days and every morning office blocked my door access card, that was unnecessary, I had to go to miniature office to get code fixed again.  On a positive the wifi did work on my iPad, and there's Von's nearby, subways, Rocco's and the the village Bakery which i recommend, was really convenient.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Poor quality stay, stayed on 3rd fl above the office, you could hear outside chatter from the street, past 12am,  hallway noise, open parking, anyone could just ride their bike thru guest parking and I saw just that, couple times, no security guard to keep an eye on guests vehicle, that didn't put me at ease. room was smelly on arrival.   After AC gets going it goes away.  Not a pleasant welcome, not a clean feeling welcome, though at a glance all looks fearly clean, went to Von's and got bleach wipes to disinfect counters.   another annoying thing was, we pre paid thru booking.com for three days and every morning office blocked my door access card, that was unnecessary, I had to go to miniature office to get code fixed again.  On a positive the wifi did work on my iPad, and there's Von's nearby, subways, Rocco's and the the village Bakery which i recommend, was really convenient.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r162229850-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>162229850</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Low Budget Option Near Downtown</t>
+  </si>
+  <si>
+    <t>I stay at this hotel regularly for business reasons. My company does not pay for hotels and the driving distance is too great for me, so I need a low budget option. Travelodge fits the bill. It is not a full service establishment. Example, when I had some plumbing issues (Caused by me) I was handed a plunger for a "do it yourself job." Other than that the place is decent on cleanliness (I work in the medical field and am a HUGE germ-a-phobe). It's a great place to just put your head down...don't expect frills. There's also a great restaraunt next door called Galleanas (great Chicken Nachos). Luckily my job does not require me to use or need WiFi and when I did need WiFi for personal use, my laptop was broken, so I can't say what their WiFi is like.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I stay at this hotel regularly for business reasons. My company does not pay for hotels and the driving distance is too great for me, so I need a low budget option. Travelodge fits the bill. It is not a full service establishment. Example, when I had some plumbing issues (Caused by me) I was handed a plunger for a "do it yourself job." Other than that the place is decent on cleanliness (I work in the medical field and am a HUGE germ-a-phobe). It's a great place to just put your head down...don't expect frills. There's also a great restaraunt next door called Galleanas (great Chicken Nachos). Luckily my job does not require me to use or need WiFi and when I did need WiFi for personal use, my laptop was broken, so I can't say what their WiFi is like.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r156020307-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>156020307</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>False advertising</t>
+  </si>
+  <si>
+    <t>As with so many budget hotels, these guys advertise free wi-fi and know darn well they do not have it. They are like all the other hotels that tell stories about how it will be fixed tomorrow or new equipment will be installed soon....blah, blah blah. At the end of the day, they are falsely advertising their services. I've been on a two week road trip from Vancouver to San Diego and in a different hotel every night. Every one advertised free wi-if and I can't remember a single one that actually provided a reliable connection. Most were lousy, and some, like the Long Beach Travelodge Convention Center just don't work at all.These days at a decent family hotel, a good Internet connection is worth ten times more than a postage-stamp sized swimming pool, which this place also boasts.And yes, my hardware works at every Starbucks and McDonald's I've stopped at.The lousy quality rating is because I could have stayed on a special rate at the Hyatt for the same price but I chose this place because the Hyatt makes no bones about no free wi-if...you pay. Instead here I got a two star room and still no wi-if, even if I wanted to pay!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded April 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2013</t>
+  </si>
+  <si>
+    <t>As with so many budget hotels, these guys advertise free wi-fi and know darn well they do not have it. They are like all the other hotels that tell stories about how it will be fixed tomorrow or new equipment will be installed soon....blah, blah blah. At the end of the day, they are falsely advertising their services. I've been on a two week road trip from Vancouver to San Diego and in a different hotel every night. Every one advertised free wi-if and I can't remember a single one that actually provided a reliable connection. Most were lousy, and some, like the Long Beach Travelodge Convention Center just don't work at all.These days at a decent family hotel, a good Internet connection is worth ten times more than a postage-stamp sized swimming pool, which this place also boasts.And yes, my hardware works at every Starbucks and McDonald's I've stopped at.The lousy quality rating is because I could have stayed on a special rate at the Hyatt for the same price but I chose this place because the Hyatt makes no bones about no free wi-if...you pay. Instead here I got a two star room and still no wi-if, even if I wanted to pay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r149820909-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>149820909</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>20 Minute Walk to the CC</t>
+  </si>
+  <si>
+    <t>Ok, should have known as other reviewers said; this 'motel' is not that close to the Convention Center.  Bad back, had a hard time walking so ended up cabbing to and from Convention Center and dinner appointments.  Building is cinder block, room very clean and lobby staff indifferent.  What I did like, the very nice maid knocked on my door shorltly after check in asked if the room was okay.  Large Sony flat screen great but hardly any choice of stations. Attached restuarant, Galeanas Grill, don't bother!  And like other reviewers, lloved that a huge Vons grocery store is one block away.  Will not stay again, bought my package on Hotwire, plane, hotel and airport tranfers.  For just a bit more I could have stayed at a much nicer hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Ok, should have known as other reviewers said; this 'motel' is not that close to the Convention Center.  Bad back, had a hard time walking so ended up cabbing to and from Convention Center and dinner appointments.  Building is cinder block, room very clean and lobby staff indifferent.  What I did like, the very nice maid knocked on my door shorltly after check in asked if the room was okay.  Large Sony flat screen great but hardly any choice of stations. Attached restuarant, Galeanas Grill, don't bother!  And like other reviewers, lloved that a huge Vons grocery store is one block away.  Will not stay again, bought my package on Hotwire, plane, hotel and airport tranfers.  For just a bit more I could have stayed at a much nicer hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r149792643-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>149792643</t>
+  </si>
+  <si>
+    <t>Good Location Friendly Staff Great Cleaning Crew</t>
+  </si>
+  <si>
+    <t>My stay was brief but without any Drama.  Check in was a breeze and the Front Desk Staff was very friendly and efficient.   The Rooms had a nice large flat screen TV which worked well.  The hotel had a Von's Full Grocery Store next door.  The Rooms were spotless and cleaned very well and I give the cleaning crew 5 Stars.  The Beds were very comfortable. The surrounding area while not the Best Neighborhood I  experienced no problems but did not stray to far away from the Room at night.  As in other reviews for this Hotel the Hallways do echo somewhat but I am a sound sleeper and not a big distraction.     I did not try the Restaurant. Wifi worked great no problem.  Parking is free and my Auto was not disturbed during my Stay.  For the Business Traveler on a Budget this Hotel would be perfect! MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay was brief but without any Drama.  Check in was a breeze and the Front Desk Staff was very friendly and efficient.   The Rooms had a nice large flat screen TV which worked well.  The hotel had a Von's Full Grocery Store next door.  The Rooms were spotless and cleaned very well and I give the cleaning crew 5 Stars.  The Beds were very comfortable. The surrounding area while not the Best Neighborhood I  experienced no problems but did not stray to far away from the Room at night.  As in other reviews for this Hotel the Hallways do echo somewhat but I am a sound sleeper and not a big distraction.     I did not try the Restaurant. Wifi worked great no problem.  Parking is free and my Auto was not disturbed during my Stay.  For the Business Traveler on a Budget this Hotel would be perfect! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r149302171-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>149302171</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Good location and good price</t>
+  </si>
+  <si>
+    <t>Travel lodge is close to the convention center you can walk and this is a plus if you want to avoid parking problems and fees. I found the location so good it is close to the beach and the pacific coast highway. The room was clean with a small fridge , a coffee maker and 32" lcd tv. Everything is ok for the rate you are paying.The only thing that was a problem was the wifi it was super slow and hard to connect, but there is a  starbucks just around the corner if you need to use internet</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r144643185-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>144643185</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Nice Place To Stay</t>
+  </si>
+  <si>
+    <t>It looked like it had been remodeled.  The exterior was freshly painted, and the grounds manicured.  The room was not large, but newly carpeted and had new linens.  There was a new large flat panel TV and good size fridge.  One block away is a new major chain grocery store.Downtown bars and restaurants are a short walk away.  There is a restaurant on-site, however I didn't try it.  The hotel is very nice and is a good location to downtown.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r141595337-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>141595337</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>I LOVE THIS PLACE</t>
+  </si>
+  <si>
+    <t>i love this hotel. this is my 2nd time staying here. i had a great experience the first time and had no doubt where i was going to stay when i came back. the employees are great. very nice, helpful and know alot about the area. very convenient location. a block from the beach, walking distance to "the pike", convention center, aquarium, shopping, queen mary. there is so much to do around here you can never get it all done. the rooms are great. the bed is so comfy it hard to get out of it. very clean rooms.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r140565504-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>140565504</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Nice location-ok hotel.</t>
+  </si>
+  <si>
+    <t>This hotel is within walking distance of the Convention Center and the free shuttle stops that will take you all around Long Beach. The room was clean, but laid out strangely. The bathroom door was right next to the bed and the sink area was by the front door. The pool was very small and there was no free breakfast offered. But it was only $85 per night, so it was adequate. On the night of our stay there were helicopters flying overhead every five minutes, rather disturbing.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded September 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is within walking distance of the Convention Center and the free shuttle stops that will take you all around Long Beach. The room was clean, but laid out strangely. The bathroom door was right next to the bed and the sink area was by the front door. The pool was very small and there was no free breakfast offered. But it was only $85 per night, so it was adequate. On the night of our stay there were helicopters flying overhead every five minutes, rather disturbing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r134322714-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>134322714</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Rooms are ok once you get over the prison-look</t>
+  </si>
+  <si>
+    <t>Stayed here for a conference at the convention centre. The convention center is about 10-15 minutes walk away, so it's pretty convenient. The first room I was put in was right next to the ice machine and the drinks machine, so I spent much of the first night being woken up by regular loud clunks. To the credit of the staff, they happily moved me to a different room which was much quieter.The rooms themselves are ok - beds are comfortable and its reasonably clean. This is good because the walk to your room makes you feel like you are going through a minimum security prison. Also, all the rooms seem to have the default air conditioning units for this kind of hotel - i.e. so loud you'd never be able to sleep with it on.There's also a nice little mexican restaurant on the same premises, where the barman was happy to serve me a beer even though they were officially closed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded August 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for a conference at the convention centre. The convention center is about 10-15 minutes walk away, so it's pretty convenient. The first room I was put in was right next to the ice machine and the drinks machine, so I spent much of the first night being woken up by regular loud clunks. To the credit of the staff, they happily moved me to a different room which was much quieter.The rooms themselves are ok - beds are comfortable and its reasonably clean. This is good because the walk to your room makes you feel like you are going through a minimum security prison. Also, all the rooms seem to have the default air conditioning units for this kind of hotel - i.e. so loud you'd never be able to sleep with it on.There's also a nice little mexican restaurant on the same premises, where the barman was happy to serve me a beer even though they were officially closed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r133706990-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>133706990</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>We lost $102 for an hour of misery in a dirty room looking desperately for other options. The room smelled of vomit and cigerettes although is was labeled as non smoking, and the carpet was sticky. When we found another place to stay we went and told them and they STILL charged us even though we were there for literally an hour. DON'T stay here ... Yuck!!MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>We lost $102 for an hour of misery in a dirty room looking desperately for other options. The room smelled of vomit and cigerettes although is was labeled as non smoking, and the carpet was sticky. When we found another place to stay we went and told them and they STILL charged us even though we were there for literally an hour. DON'T stay here ... Yuck!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r131304518-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>131304518</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>Nicely furnished, a little loud</t>
+  </si>
+  <si>
+    <t>It isn't 2 blocks away from the convention center more like a 10 minute brisk walk 15-20 minute stroll. The window into the open courtyard means you can hear all the noise in the hallways which was plenty for me. There were really inconsiderate people talking in the hallways until 3:00 am and then dribbling basketballs at 6:00 am and I heard it all. Also the room was supposed to be nonsmoking but my room had a definite smell nothing that a $4 can of Lysol from the Vons a block away didn't fix. New fixtures in the room were nice including "marble" top counters and tableThere's a nice Mexican restaurant downstairs that's reasonably priced and a ton of good local restaurants a block away on Broadway.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>It isn't 2 blocks away from the convention center more like a 10 minute brisk walk 15-20 minute stroll. The window into the open courtyard means you can hear all the noise in the hallways which was plenty for me. There were really inconsiderate people talking in the hallways until 3:00 am and then dribbling basketballs at 6:00 am and I heard it all. Also the room was supposed to be nonsmoking but my room had a definite smell nothing that a $4 can of Lysol from the Vons a block away didn't fix. New fixtures in the room were nice including "marble" top counters and tableThere's a nice Mexican restaurant downstairs that's reasonably priced and a ton of good local restaurants a block away on Broadway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r127077763-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>127077763</t>
+  </si>
+  <si>
+    <t>04/01/2012</t>
+  </si>
+  <si>
+    <t>Decent budget hotel</t>
+  </si>
+  <si>
+    <t>I found the staff to be very helpful and friendly during my short stay in Long Beach. The hotel was average and comparably priced to other similar hotels. The hotel is conveniently located in the convention center area - a very short walk to the convention center and to some great restaurants.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r126669266-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>126669266</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Sketchy area and patrons</t>
+  </si>
+  <si>
+    <t>This is probably the lowest ranked hotel Ive ever stayed in. The sleep level and cleanliness was fine. The room had all the basic requirements and parking was free. I was a little perturbed about some of the patrons , there was a punk concert at The Queen Mary however. We made it out okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>travelodgelongbeach, Webmaster at Travelodge by Wyndham Long Beach Convention Center, responded to this reviewResponded April 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2012</t>
+  </si>
+  <si>
+    <t>This is probably the lowest ranked hotel Ive ever stayed in. The sleep level and cleanliness was fine. The room had all the basic requirements and parking was free. I was a little perturbed about some of the patrons , there was a punk concert at The Queen Mary however. We made it out okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r125098924-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>125098924</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Travelodge Long Beach</t>
+  </si>
+  <si>
+    <t>Room was clean, good size.  They did have a mini fridge, but wished they would have also had a microwave.  Staff was friendly and location wasn't bad, could walk to resturants and aquarium.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Room was clean, good size.  They did have a mini fridge, but wished they would have also had a microwave.  Staff was friendly and location wasn't bad, could walk to resturants and aquarium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r120361521-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>120361521</t>
+  </si>
+  <si>
+    <t>11/08/2011</t>
+  </si>
+  <si>
+    <t>Good value, and locaton</t>
+  </si>
+  <si>
+    <t>Good value. We did not have a reservation and got a room right away at a reasonable rate. The hallway to the room was a little scary, but the room was ok. Room was quiet and clean, and the front desk clerk was very friendly. Walking distance to everything. Would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r119924202-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>119924202</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>Flew into LAX and drove to Long Beach for 2 nights.Excellent location - 3 blocks to the city's free bus service - good restaurants within 2 blocks.Would use again.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r119494763-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>119494763</t>
+  </si>
+  <si>
+    <t>10/19/2011</t>
+  </si>
+  <si>
+    <t>Reasonable location to cruise ports.</t>
+  </si>
+  <si>
+    <t>Not a bad location, downtown Long Beach.  Rooms were nice with recent updates.  Not much for thrills.  The Mexican restaurant in the parking lot is awesome with great service.  Just a little note, it's about a $12 cab ride to long beach cruise port and about $20 to San Pedro.  The front desk people get some kind of a kick back from the suggested car services and you will pay about $30.  We cabbed it from LAX to the Travelodge and paid $65.00.  You can usually rent a car from LAX and drop it at the Hertz rental right around the corner from the hotel for about $60.00 and you get to use it for a day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Not a bad location, downtown Long Beach.  Rooms were nice with recent updates.  Not much for thrills.  The Mexican restaurant in the parking lot is awesome with great service.  Just a little note, it's about a $12 cab ride to long beach cruise port and about $20 to San Pedro.  The front desk people get some kind of a kick back from the suggested car services and you will pay about $30.  We cabbed it from LAX to the Travelodge and paid $65.00.  You can usually rent a car from LAX and drop it at the Hertz rental right around the corner from the hotel for about $60.00 and you get to use it for a day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r118028738-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>118028738</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>great location, room was clean, bed was comfey, and noise was not a problem would stay there again!</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r117728881-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>117728881</t>
+  </si>
+  <si>
+    <t>09/05/2011</t>
+  </si>
+  <si>
+    <t>Great Price Great area</t>
+  </si>
+  <si>
+    <t>Went there for an event at the convention center.  The hotel is older but has been renovated and looks very nice.  it was clean and surprisingly quiet for a Labor Day weekend.  Shower could've had better flow but was manageable.  We asked for a balcony and it was very nice.  Free Wifi and parking.  The staff was friendly as well.  I would go back there</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r115936559-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>115936559</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Tough one - some good some not so good</t>
+  </si>
+  <si>
+    <t>THE ROOM
+As the previous reviewer alluded to - the front office manages a separate reservation system.   You call them directly to book?  it won't show up in the Travelodge central reservation system.  If instead, you book your room through the central reservation system?  you may not get the room you asked for.
+In our case, we got a SMOKING room (our confirmed reservation through their 1800 number was for non-smoking).   However, we had asked to be put close to relatives' and the relatives had apparently accepted a smoking room (they are also non-smokers), so our room was in the smoking section of the hotel as well.   At check-in time, the front desk told us they can only give us a smoking room if we want to be close to our relatives.  They suggested we go check out the room and decide.   We tried it out, and thought we'd just put up with the stink.     But we later saw that the kids' feet were CHAR BLACK after walking across the carpet.     We kept as much of our stuff off the floor as we could.
+To the best of my knowledge, the beds were bug-free.    We also checked two other rooms belonging to our relatives'.  All bug-free.  
+There were two pillows per bed.  We went down to the front desk but they had run out of them.   They suggested we ask the cleaning lady in the morning.  
+The bathroom only has...THE ROOMAs the previous reviewer alluded to - the front office manages a separate reservation system.   You call them directly to book?  it won't show up in the Travelodge central reservation system.  If instead, you book your room through the central reservation system?  you may not get the room you asked for.In our case, we got a SMOKING room (our confirmed reservation through their 1800 number was for non-smoking).   However, we had asked to be put close to relatives' and the relatives had apparently accepted a smoking room (they are also non-smokers), so our room was in the smoking section of the hotel as well.   At check-in time, the front desk told us they can only give us a smoking room if we want to be close to our relatives.  They suggested we go check out the room and decide.   We tried it out, and thought we'd just put up with the stink.     But we later saw that the kids' feet were CHAR BLACK after walking across the carpet.     We kept as much of our stuff off the floor as we could.To the best of my knowledge, the beds were bug-free.    We also checked two other rooms belonging to our relatives'.  All bug-free.  There were two pillows per bed.  We went down to the front desk but they had run out of them.   They suggested we ask the cleaning lady in the morning.  The bathroom only has a single towel rack, and the cleaning staff insists on giving us towels for 2, everyday during our stay (we stayed almost a week).  Every night when we return to the room , we had to go to the front office for more towels.   Sure, a note to the cleaning staff would do the trick.  But surely the cleaning staff would have noticed the number of adult/children/male/female items in the room to realize there are more than 2 people staying here?       THE LOCATIONCan't be beat.  Parking is free (vs $10/day at the Marriott Courtyard across the street).   However, the parking spaces tend to get filled up quickly, plus California seems to boast the dual title of World's smallest parking spots and the World's most number of over-sized SUVs per capita.   Often we saw SUVs taking up 2 spots.  Or 3 spots next to each other could really only accomodate 2 cars.There is a very new-looking and good sized supermarket, VONS, just a block away.    The parking lot entrance of VONS is literally across the street from the Travelodge.   We were able to stock up on groceries and supplies easily.THE POOLIt wasn't 6x4 as some other reviewer described.  Or perhaps he was saying 6 by 4 metres.   In US Customary units, the pool is about 20 feet x 14 feet.   NOISEIt was NOISY at night.  But.  the key is to keep the air cond or fan unit on, and the humming of that unit will drown out everything.  The first night, we didn't know and turned the unit off and was treated to (it was a mid-week night) :   sirens of emergency vehicle at 1am.   People talking loudly and smoking right outside our door on the corridor around 2:30am.   Car alarm going off at 5:50am.  UGH.   We kept the air cond unit on for the rest of our stay and was able to sleep.STAFFNot sure if it's because of the locale (Long Beach), or if it's just the people who run the place, but these guys are friendly, laid back, but at the same time courteous and you can tell they want to help.   Even though we didn't think our accomodations were great, i have to say that my dealings with the front desk staff had been very good - from helping me get on their internet, to suggesting i use the office phone if i don't want to pay $1 for each 1800 call (although i then struggled with their office phone - seeing i wasn't having much success,  the desk person just handed me his personal cell phone to use for the few calls i needed to make!)We paid ~$80/night, AAA rate.     I'd say my review is mixed, some good, some not so good.   Perhaps if we had gotten a non-smoking room, we would have had a better experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>THE ROOM
+As the previous reviewer alluded to - the front office manages a separate reservation system.   You call them directly to book?  it won't show up in the Travelodge central reservation system.  If instead, you book your room through the central reservation system?  you may not get the room you asked for.
+In our case, we got a SMOKING room (our confirmed reservation through their 1800 number was for non-smoking).   However, we had asked to be put close to relatives' and the relatives had apparently accepted a smoking room (they are also non-smokers), so our room was in the smoking section of the hotel as well.   At check-in time, the front desk told us they can only give us a smoking room if we want to be close to our relatives.  They suggested we go check out the room and decide.   We tried it out, and thought we'd just put up with the stink.     But we later saw that the kids' feet were CHAR BLACK after walking across the carpet.     We kept as much of our stuff off the floor as we could.
+To the best of my knowledge, the beds were bug-free.    We also checked two other rooms belonging to our relatives'.  All bug-free.  
+There were two pillows per bed.  We went down to the front desk but they had run out of them.   They suggested we ask the cleaning lady in the morning.  
+The bathroom only has...THE ROOMAs the previous reviewer alluded to - the front office manages a separate reservation system.   You call them directly to book?  it won't show up in the Travelodge central reservation system.  If instead, you book your room through the central reservation system?  you may not get the room you asked for.In our case, we got a SMOKING room (our confirmed reservation through their 1800 number was for non-smoking).   However, we had asked to be put close to relatives' and the relatives had apparently accepted a smoking room (they are also non-smokers), so our room was in the smoking section of the hotel as well.   At check-in time, the front desk told us they can only give us a smoking room if we want to be close to our relatives.  They suggested we go check out the room and decide.   We tried it out, and thought we'd just put up with the stink.     But we later saw that the kids' feet were CHAR BLACK after walking across the carpet.     We kept as much of our stuff off the floor as we could.To the best of my knowledge, the beds were bug-free.    We also checked two other rooms belonging to our relatives'.  All bug-free.  There were two pillows per bed.  We went down to the front desk but they had run out of them.   They suggested we ask the cleaning lady in the morning.  The bathroom only has a single towel rack, and the cleaning staff insists on giving us towels for 2, everyday during our stay (we stayed almost a week).  Every night when we return to the room , we had to go to the front office for more towels.   Sure, a note to the cleaning staff would do the trick.  But surely the cleaning staff would have noticed the number of adult/children/male/female items in the room to realize there are more than 2 people staying here?       THE LOCATIONCan't be beat.  Parking is free (vs $10/day at the Marriott Courtyard across the street).   However, the parking spaces tend to get filled up quickly, plus California seems to boast the dual title of World's smallest parking spots and the World's most number of over-sized SUVs per capita.   Often we saw SUVs taking up 2 spots.  Or 3 spots next to each other could really only accomodate 2 cars.There is a very new-looking and good sized supermarket, VONS, just a block away.    The parking lot entrance of VONS is literally across the street from the Travelodge.   We were able to stock up on groceries and supplies easily.THE POOLIt wasn't 6x4 as some other reviewer described.  Or perhaps he was saying 6 by 4 metres.   In US Customary units, the pool is about 20 feet x 14 feet.   NOISEIt was NOISY at night.  But.  the key is to keep the air cond or fan unit on, and the humming of that unit will drown out everything.  The first night, we didn't know and turned the unit off and was treated to (it was a mid-week night) :   sirens of emergency vehicle at 1am.   People talking loudly and smoking right outside our door on the corridor around 2:30am.   Car alarm going off at 5:50am.  UGH.   We kept the air cond unit on for the rest of our stay and was able to sleep.STAFFNot sure if it's because of the locale (Long Beach), or if it's just the people who run the place, but these guys are friendly, laid back, but at the same time courteous and you can tell they want to help.   Even though we didn't think our accomodations were great, i have to say that my dealings with the front desk staff had been very good - from helping me get on their internet, to suggesting i use the office phone if i don't want to pay $1 for each 1800 call (although i then struggled with their office phone - seeing i wasn't having much success,  the desk person just handed me his personal cell phone to use for the few calls i needed to make!)We paid ~$80/night, AAA rate.     I'd say my review is mixed, some good, some not so good.   Perhaps if we had gotten a non-smoking room, we would have had a better experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r114402370-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>114402370</t>
+  </si>
+  <si>
+    <t>06/19/2011</t>
+  </si>
+  <si>
+    <t>Great Room, Great Location, Rude Staff</t>
+  </si>
+  <si>
+    <t>The room was amazing.  It had a very comfortable, king size bed. It was perfect for two people. The location was fantastic withing walking distance of all the main attractions such as the Aquarium, Convention Center, Shoreline Village, Beach, etc. Great restaurants were very close as well.  The front desk staff was really condescending when he learned we had booked through priceline.com.  From that point on he was very short with us and would not answer any questions. They said they offered free wifi service, but its a slow connection when you can actually get it to work. If you ask the front desk staff for assistance they just repeatedly told me the name of the connection and my username/password combo. We requested no maid service the next morning and the front desk person made it seem like a huge deal he had to radio our housekeeper and tell her no service. They have a pool, but its about six feet long and five feet wide and the gate is padlocked but with the beach only a few blocks away...its not really a concern.  If you plan on being out seeing the sights for most of the days and just want a place to relax in the evening and sleep at night then this hotel is great. The location is perfect and if you don't need much then it is excellent. Staff could learn some customer service, and the internet...The room was amazing.  It had a very comfortable, king size bed. It was perfect for two people. The location was fantastic withing walking distance of all the main attractions such as the Aquarium, Convention Center, Shoreline Village, Beach, etc. Great restaurants were very close as well.  The front desk staff was really condescending when he learned we had booked through priceline.com.  From that point on he was very short with us and would not answer any questions. They said they offered free wifi service, but its a slow connection when you can actually get it to work. If you ask the front desk staff for assistance they just repeatedly told me the name of the connection and my username/password combo. We requested no maid service the next morning and the front desk person made it seem like a huge deal he had to radio our housekeeper and tell her no service. They have a pool, but its about six feet long and five feet wide and the gate is padlocked but with the beach only a few blocks away...its not really a concern.  If you plan on being out seeing the sights for most of the days and just want a place to relax in the evening and sleep at night then this hotel is great. The location is perfect and if you don't need much then it is excellent. Staff could learn some customer service, and the internet is horrible, but everything else was fantastic.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was amazing.  It had a very comfortable, king size bed. It was perfect for two people. The location was fantastic withing walking distance of all the main attractions such as the Aquarium, Convention Center, Shoreline Village, Beach, etc. Great restaurants were very close as well.  The front desk staff was really condescending when he learned we had booked through priceline.com.  From that point on he was very short with us and would not answer any questions. They said they offered free wifi service, but its a slow connection when you can actually get it to work. If you ask the front desk staff for assistance they just repeatedly told me the name of the connection and my username/password combo. We requested no maid service the next morning and the front desk person made it seem like a huge deal he had to radio our housekeeper and tell her no service. They have a pool, but its about six feet long and five feet wide and the gate is padlocked but with the beach only a few blocks away...its not really a concern.  If you plan on being out seeing the sights for most of the days and just want a place to relax in the evening and sleep at night then this hotel is great. The location is perfect and if you don't need much then it is excellent. Staff could learn some customer service, and the internet...The room was amazing.  It had a very comfortable, king size bed. It was perfect for two people. The location was fantastic withing walking distance of all the main attractions such as the Aquarium, Convention Center, Shoreline Village, Beach, etc. Great restaurants were very close as well.  The front desk staff was really condescending when he learned we had booked through priceline.com.  From that point on he was very short with us and would not answer any questions. They said they offered free wifi service, but its a slow connection when you can actually get it to work. If you ask the front desk staff for assistance they just repeatedly told me the name of the connection and my username/password combo. We requested no maid service the next morning and the front desk person made it seem like a huge deal he had to radio our housekeeper and tell her no service. They have a pool, but its about six feet long and five feet wide and the gate is padlocked but with the beach only a few blocks away...its not really a concern.  If you plan on being out seeing the sights for most of the days and just want a place to relax in the evening and sleep at night then this hotel is great. The location is perfect and if you don't need much then it is excellent. Staff could learn some customer service, and the internet is horrible, but everything else was fantastic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r113253240-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>113253240</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Good alternative to expensive conference center hotels</t>
+  </si>
+  <si>
+    <t>We had a trade show in Long Beach Convention Center, and we use this hotel as a good alternative to the way too expensive for us Hyatt... This is the 2nd year we have stayed here so we liked it enough to come backLong Beach Convention Center is within walking distance, only a couple of blocks, and you walk right past the FedEx Office where we get all our printing done.Room was a little musty, but overall clean. Beds were comfy, and room was well maintained (no dings or broken bits).This last visit over the weekend was very noisy with large families staying, and lots of kids running up and own the corridors...The Wifi signal is adequate in most of the rooms. Free parking is a bonus in this town near the waterfront.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a trade show in Long Beach Convention Center, and we use this hotel as a good alternative to the way too expensive for us Hyatt... This is the 2nd year we have stayed here so we liked it enough to come backLong Beach Convention Center is within walking distance, only a couple of blocks, and you walk right past the FedEx Office where we get all our printing done.Room was a little musty, but overall clean. Beds were comfy, and room was well maintained (no dings or broken bits).This last visit over the weekend was very noisy with large families staying, and lots of kids running up and own the corridors...The Wifi signal is adequate in most of the rooms. Free parking is a bonus in this town near the waterfront.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r112896554-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>112896554</t>
+  </si>
+  <si>
+    <t>06/12/2011</t>
+  </si>
+  <si>
+    <t>Not worth the price</t>
+  </si>
+  <si>
+    <t>Stayed here for ink n iron.  Cheapest room around.Burn marks on the wall.  Blob of dried blood on the ceiling...horrible coffeemaker and the beds feel like they're a 100 years old!!!!!!NOISY. NOISY. NOISYI've learned my lesson....Marriott us worth the price!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for ink n iron.  Cheapest room around.Burn marks on the wall.  Blob of dried blood on the ceiling...horrible coffeemaker and the beds feel like they're a 100 years old!!!!!!NOISY. NOISY. NOISYI've learned my lesson....Marriott us worth the price!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r107306317-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>107306317</t>
+  </si>
+  <si>
+    <t>05/07/2011</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Booked this hotel as it was close to the convention center and inexpensive (on a public university budget - had to find something cheap!).  Then I read the reviews and thought it may be better to sleep in a cardboard box.  Turns out everything was great.  I rate this hotel 4 stars as it is a great value proposition and is located near the convention center (last stay was at a Mandarin Oriental and I would rate the experience lower, but of course there's no comparing the two in terms of style and luxury). The gentleman who checked us in was friendly and offered a complimentary newspaper.  Parking is convenient and the room was tidy and clean.  Great water pressure for the shower and there was even a complimentary travel sized toothpaste provided.  Check out was quick and efficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Booked this hotel as it was close to the convention center and inexpensive (on a public university budget - had to find something cheap!).  Then I read the reviews and thought it may be better to sleep in a cardboard box.  Turns out everything was great.  I rate this hotel 4 stars as it is a great value proposition and is located near the convention center (last stay was at a Mandarin Oriental and I would rate the experience lower, but of course there's no comparing the two in terms of style and luxury). The gentleman who checked us in was friendly and offered a complimentary newspaper.  Parking is convenient and the room was tidy and clean.  Great water pressure for the shower and there was even a complimentary travel sized toothpaste provided.  Check out was quick and efficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r97629588-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>97629588</t>
+  </si>
+  <si>
+    <t>02/22/2011</t>
+  </si>
+  <si>
+    <t>Avoid this hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was horrible.  It didn't look like it's pictures at all.  I had a confirmation for a non-smoking room but didn't receive it.  Front office smelled funny.  Staff very unfriendly.  No on-site restaurant as advertised.  Total waste of time and money.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>This hotel was horrible.  It didn't look like it's pictures at all.  I had a confirmation for a non-smoking room but didn't receive it.  Front office smelled funny.  Staff very unfriendly.  No on-site restaurant as advertised.  Total waste of time and money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r93898298-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>93898298</t>
+  </si>
+  <si>
+    <t>01/20/2011</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>Wanted somewhere cheap to stay for few days. Room was very big, very clean and had all amenities. Excellent location. Would recommend</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r64937381-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>64937381</t>
+  </si>
+  <si>
+    <t>05/21/2010</t>
+  </si>
+  <si>
+    <t>Horrible!!</t>
+  </si>
+  <si>
+    <t>These rooms are  horrible to stay in, rooms smelled liked mildew, shower walls had mole growing.  General Manager Dennis Patel  never returned  phone calls until after he recieved  my complaint from customer service. they do not have security onsite General Managers response wa theya re a small company we had some problems with people partying all night called night clerk no response in tehmiddle of teh night.  General manager  did not want to  credit us. Over PricedMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>These rooms are  horrible to stay in, rooms smelled liked mildew, shower walls had mole growing.  General Manager Dennis Patel  never returned  phone calls until after he recieved  my complaint from customer service. they do not have security onsite General Managers response wa theya re a small company we had some problems with people partying all night called night clerk no response in tehmiddle of teh night.  General manager  did not want to  credit us. Over PricedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r61838370-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>61838370</t>
+  </si>
+  <si>
+    <t>04/18/2010</t>
+  </si>
+  <si>
+    <t>great value... Much improved from last visit</t>
+  </si>
+  <si>
+    <t>Needed a room overnight and saw that this property was a great value for the location. I had visited friends who booked a room there back in 2004, and I was nonplussed with the room back then.   Fast Forward 6 years:    The room was clean and well appointed (coffee, refrig, flat panel TV with digital cable, very new-feeling beds, etc.), but the real difference is due to the management and their attention to detail when it comes to their customers.   In prior years I had stayed at the BW (1 block N), and loved the room, but hated all the hoops I had to jump through (and spent substantially more in the process of jumping through those hoops) that thier rules placed in front of me.   I have seen reviews of this property run the gamut from "dump" to "excellent", and I'm going to skew the bell curve towards the "excellent" side due to the inspired work by the management and staff.  My friend and me commend the staff on giving us a very pleasant stay (at a SMOKIN' price!!!).   Mr. WagnerMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Needed a room overnight and saw that this property was a great value for the location. I had visited friends who booked a room there back in 2004, and I was nonplussed with the room back then.   Fast Forward 6 years:    The room was clean and well appointed (coffee, refrig, flat panel TV with digital cable, very new-feeling beds, etc.), but the real difference is due to the management and their attention to detail when it comes to their customers.   In prior years I had stayed at the BW (1 block N), and loved the room, but hated all the hoops I had to jump through (and spent substantially more in the process of jumping through those hoops) that thier rules placed in front of me.   I have seen reviews of this property run the gamut from "dump" to "excellent", and I'm going to skew the bell curve towards the "excellent" side due to the inspired work by the management and staff.  My friend and me commend the staff on giving us a very pleasant stay (at a SMOKIN' price!!!).   Mr. WagnerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r59277513-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>59277513</t>
+  </si>
+  <si>
+    <t>03/22/2010</t>
+  </si>
+  <si>
+    <t>great value and location</t>
+  </si>
+  <si>
+    <t>This hotel has a great location that is walking distance to the convention center, various restraunts, and entertainment. I came to the hotel for its value and location and was satisfied for the three nights I stayed. I enjoyed the balcony as well the hospitable staff. If you are looking for good value in the right location in downtown Long Beach, I recommend you stay here.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r33407201-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>33407201</t>
+  </si>
+  <si>
+    <t>06/28/2009</t>
+  </si>
+  <si>
+    <t>My kind of hotel-midrange</t>
+  </si>
+  <si>
+    <t>My girlfriend and I just checked out after 4 pleasant, quiet nights on 2 queen beds.  The location was close enough for us to easily walk to the convention center or downtown to meet friends.  Nice mid-size refrigerator, hairdryer, tv in every room.  No microwave.  Free internet and free parking. Von's market is one street away.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r25757607-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>25757607</t>
+  </si>
+  <si>
+    <t>03/07/2009</t>
+  </si>
+  <si>
+    <t>scary and terrible</t>
+  </si>
+  <si>
+    <t>I wish that I had read these reviews, before I stayed here.  Hotel was listed as 4 star with travel rewards and obviously no one polices travel lodge policies. Ratings on the reward system can not be trusted.  After I reported that there was no pool, restuarant (next to hotel)  was not open for business and room were dark and old furnitue, nanger only called to agree with me and said that this year--things would be different.  Don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>I wish that I had read these reviews, before I stayed here.  Hotel was listed as 4 star with travel rewards and obviously no one polices travel lodge policies. Ratings on the reward system can not be trusted.  After I reported that there was no pool, restuarant (next to hotel)  was not open for business and room were dark and old furnitue, nanger only called to agree with me and said that this year--things would be different.  Don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r16201365-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>16201365</t>
+  </si>
+  <si>
+    <t>05/19/2008</t>
+  </si>
+  <si>
+    <t>worst hotel</t>
+  </si>
+  <si>
+    <t>Myself and my two young daughters were in town for a sports competition. Since Travelodge in general has a pretty good reputation we decided to stay at this hotel. When we got there the hotel looked nothing like the picture. It looked like a sleazy hotel you would find in the ghetto. This hotel was not maintained. We were very tired and the room was clean so we decided to stay. At exactly 7:30am a loud fan turned on from the restaurant downstairs. It sounded like a train running in the next room. The walls and the floors in my room were shaking. When I complained to the front desk they were rude to me and told me there wasn't any problems with the room. I had to take them to the room before they would acknowledge there was a problem. They said the problem was taken care of. The next morning at the same time the fans came on. Again the front desk was rude to me and refused to acknowledge the problem. Please don't stay at this hotel. My kids had a very important competition that weekend and we got almost no sleep and were treated very poorly don't take the abuse stay some were else.  Also, there was no pool as advertised. The just had a big hole in the ground were the pool use to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>Myself and my two young daughters were in town for a sports competition. Since Travelodge in general has a pretty good reputation we decided to stay at this hotel. When we got there the hotel looked nothing like the picture. It looked like a sleazy hotel you would find in the ghetto. This hotel was not maintained. We were very tired and the room was clean so we decided to stay. At exactly 7:30am a loud fan turned on from the restaurant downstairs. It sounded like a train running in the next room. The walls and the floors in my room were shaking. When I complained to the front desk they were rude to me and told me there wasn't any problems with the room. I had to take them to the room before they would acknowledge there was a problem. They said the problem was taken care of. The next morning at the same time the fans came on. Again the front desk was rude to me and refused to acknowledge the problem. Please don't stay at this hotel. My kids had a very important competition that weekend and we got almost no sleep and were treated very poorly don't take the abuse stay some were else.  Also, there was no pool as advertised. The just had a big hole in the ground were the pool use to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r7953053-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>7953053</t>
+  </si>
+  <si>
+    <t>06/19/2007</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>After reading the reviews on this hotel decided to book because of the lower rate.  Making a note to look at the room on arrival before checking in.The man at the front desk was nice, let us see the room, which looked fine.  It's kind of a strange hotel.The elevator is a bit scary and we had to walk to an inside walkway, the floor was cement and the hallway was kind of dark.  Our room was very clean but it had an odor, like a human odor, not sure how to describe it.  We should have looked at another room to see if it had the same odor but were tired.The pool did not have water in it.I'm not sure if I would stay there again.We went to the Margarita Grill and ate on their patio.  Great atmosphere and good food.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>After reading the reviews on this hotel decided to book because of the lower rate.  Making a note to look at the room on arrival before checking in.The man at the front desk was nice, let us see the room, which looked fine.  It's kind of a strange hotel.The elevator is a bit scary and we had to walk to an inside walkway, the floor was cement and the hallway was kind of dark.  Our room was very clean but it had an odor, like a human odor, not sure how to describe it.  We should have looked at another room to see if it had the same odor but were tired.The pool did not have water in it.I'm not sure if I would stay there again.We went to the Margarita Grill and ate on their patio.  Great atmosphere and good food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r6766326-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>6766326</t>
+  </si>
+  <si>
+    <t>02/08/2007</t>
+  </si>
+  <si>
+    <t>it was nothing special...obviously</t>
+  </si>
+  <si>
+    <t>we stayed at this hotel before setting out of california on a road trip. we needed a place to relax before some surfing the next morning and this is where we crashed. they gave us a goodrate... a lot less than what they originally asked for..plus they gave us the CAA rate because we told them its the canadian version of AAA. oter than that all we did was watch tv in this place and thats it. it was a lot nicer than the other travelodges we stayed at during our road tripMoreShow less</t>
+  </si>
+  <si>
+    <t>we stayed at this hotel before setting out of california on a road trip. we needed a place to relax before some surfing the next morning and this is where we crashed. they gave us a goodrate... a lot less than what they originally asked for..plus they gave us the CAA rate because we told them its the canadian version of AAA. oter than that all we did was watch tv in this place and thats it. it was a lot nicer than the other travelodges we stayed at during our road tripMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r4597222-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>4597222</t>
+  </si>
+  <si>
+    <t>03/08/2006</t>
+  </si>
+  <si>
+    <t>We got smoked</t>
+  </si>
+  <si>
+    <t>If you're a nonsmoker, stay away from this motel.  We stayed in a supposedly nonsmoking room and it wreaked of cigarrette smoke.  I approached the front desk about the problem but they said it was out of their control.  I kind of doubt that.  We had no choice but stay there since there was no vacancy and going to another hotel would be going out of our budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you're a nonsmoker, stay away from this motel.  We stayed in a supposedly nonsmoking room and it wreaked of cigarrette smoke.  I approached the front desk about the problem but they said it was out of their control.  I kind of doubt that.  We had no choice but stay there since there was no vacancy and going to another hotel would be going out of our budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r2810927-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>2810927</t>
+  </si>
+  <si>
+    <t>11/06/2004</t>
+  </si>
+  <si>
+    <t>A dump, especially considering the high rates.</t>
+  </si>
+  <si>
+    <t>The hotel doesn't look bad from the outside, but it goes downhill after that. The dumpy hallways and elevator are scary--they look like a great place to be mugged, raped, and/or murdered. The rooms are poorly maintained, and my sheets had numerous burn holes in them. Local phone calls are .25 connection fee, then .08 per minute--a ripoff especially if you need to use the internet. The fridge in the room is nice, but doesn't make up for all the negatives. The worst part is the very high rates--you can stay in nice hotels for the about the same money. Avoid this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel doesn't look bad from the outside, but it goes downhill after that. The dumpy hallways and elevator are scary--they look like a great place to be mugged, raped, and/or murdered. The rooms are poorly maintained, and my sheets had numerous burn holes in them. Local phone calls are .25 connection fee, then .08 per minute--a ripoff especially if you need to use the internet. The fridge in the room is nice, but doesn't make up for all the negatives. The worst part is the very high rates--you can stay in nice hotels for the about the same money. Avoid this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r2215598-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>2215598</t>
+  </si>
+  <si>
+    <t>06/21/2004</t>
+  </si>
+  <si>
+    <t>Double check posted rates-pets allowed and your sheets</t>
+  </si>
+  <si>
+    <t>Had 3 nasty suprises: According to several websites pets were allowed.  NOT.  Had to keep dog in car, was concerned that he would whine and bother other guests. Price: No one told us that prices went up over the weeked. Up is an understatement.....doubled was closer to it.Sheets: When pulling them back while doing the "make sure you didn't leave any thing here check" discovered that we had been sleeping on blood-stained sheets for 3 nights.  GAG-GAG-GAGMoreShow less</t>
+  </si>
+  <si>
+    <t>Had 3 nasty suprises: According to several websites pets were allowed.  NOT.  Had to keep dog in car, was concerned that he would whine and bother other guests. Price: No one told us that prices went up over the weeked. Up is an understatement.....doubled was closer to it.Sheets: When pulling them back while doing the "make sure you didn't leave any thing here check" discovered that we had been sleeping on blood-stained sheets for 3 nights.  GAG-GAG-GAGMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r1763936-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>1763936</t>
+  </si>
+  <si>
+    <t>04/04/2004</t>
+  </si>
+  <si>
+    <t>What a pit</t>
+  </si>
+  <si>
+    <t>Do not waste your money. For a few more dollars, you can stay at the Courtyard Marriot across the street. $122.00 for a fabulous view of the Parking lot. I was told I could not use my AAA card because this total rip off was already at a reduced rate. Run down...Dirty, and Old. Does this elevator even have a license to operate??Long Beach has turned into a beautiful city with lots of new development...don't ruin your visit by staying at this establishment. You can smell it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Do not waste your money. For a few more dollars, you can stay at the Courtyard Marriot across the street. $122.00 for a fabulous view of the Parking lot. I was told I could not use my AAA card because this total rip off was already at a reduced rate. Run down...Dirty, and Old. Does this elevator even have a license to operate??Long Beach has turned into a beautiful city with lots of new development...don't ruin your visit by staying at this establishment. You can smell it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r1025745-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>1025745</t>
+  </si>
+  <si>
+    <t>05/21/2003</t>
+  </si>
+  <si>
+    <t>Scary and Smelly</t>
+  </si>
+  <si>
+    <t>First of all, the prices shown here are $49-99. I paid the $99 rate and yet still ended up in a small room with a strange odor (it was non-smoking), a fair amount of street noise, and somebody trying to enter my room in the middle of the night. There was no closet and the drapes didn't close very well. While this is a good location for access to the Convention Center, because of the factors mentioned above, I didn't get much sleep. To me, it wasn't a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all, the prices shown here are $49-99. I paid the $99 rate and yet still ended up in a small room with a strange odor (it was non-smoking), a fair amount of street noise, and somebody trying to enter my room in the middle of the night. There was no closet and the drapes didn't close very well. While this is a good location for access to the Convention Center, because of the factors mentioned above, I didn't get much sleep. To me, it wasn't a good value.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2634,6180 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>189</v>
+      </c>
+      <c r="X21" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>211</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>238</v>
+      </c>
+      <c r="X26" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" t="s">
+        <v>244</v>
+      </c>
+      <c r="L27" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>246</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s">
+        <v>211</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>247</v>
+      </c>
+      <c r="X28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>285</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>277</v>
+      </c>
+      <c r="X32" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" t="s">
+        <v>289</v>
+      </c>
+      <c r="K33" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" t="s">
+        <v>291</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>292</v>
+      </c>
+      <c r="O33" t="s">
+        <v>211</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>277</v>
+      </c>
+      <c r="X34" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>305</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>277</v>
+      </c>
+      <c r="X35" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" t="s">
+        <v>310</v>
+      </c>
+      <c r="L36" t="s">
+        <v>311</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>277</v>
+      </c>
+      <c r="X36" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>277</v>
+      </c>
+      <c r="X37" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>325</v>
+      </c>
+      <c r="O38" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>326</v>
+      </c>
+      <c r="X38" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>334</v>
+      </c>
+      <c r="O39" t="s">
+        <v>211</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>335</v>
+      </c>
+      <c r="X39" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J40" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>341</v>
+      </c>
+      <c r="O40" t="s">
+        <v>130</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>343</v>
+      </c>
+      <c r="J41" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s">
+        <v>346</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>347</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s">
+        <v>352</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>347</v>
+      </c>
+      <c r="O42" t="s">
+        <v>211</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>353</v>
+      </c>
+      <c r="X42" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>357</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>367</v>
+      </c>
+      <c r="O44" t="s">
+        <v>130</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>370</v>
+      </c>
+      <c r="J45" t="s">
+        <v>371</v>
+      </c>
+      <c r="K45" t="s">
+        <v>372</v>
+      </c>
+      <c r="L45" t="s">
+        <v>373</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>374</v>
+      </c>
+      <c r="O45" t="s">
+        <v>112</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>375</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>376</v>
+      </c>
+      <c r="J46" t="s">
+        <v>377</v>
+      </c>
+      <c r="K46" t="s">
+        <v>378</v>
+      </c>
+      <c r="L46" t="s">
+        <v>379</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>367</v>
+      </c>
+      <c r="O46" t="s">
+        <v>112</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>353</v>
+      </c>
+      <c r="X46" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>386</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>353</v>
+      </c>
+      <c r="X47" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" t="s">
+        <v>390</v>
+      </c>
+      <c r="K48" t="s">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s">
+        <v>392</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>374</v>
+      </c>
+      <c r="O48" t="s">
+        <v>211</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>393</v>
+      </c>
+      <c r="X48" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>397</v>
+      </c>
+      <c r="J49" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49" t="s">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s">
+        <v>400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>374</v>
+      </c>
+      <c r="O49" t="s">
+        <v>211</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>393</v>
+      </c>
+      <c r="X49" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>402</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>403</v>
+      </c>
+      <c r="J50" t="s">
+        <v>404</v>
+      </c>
+      <c r="K50" t="s">
+        <v>405</v>
+      </c>
+      <c r="L50" t="s">
+        <v>406</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>407</v>
+      </c>
+      <c r="O50" t="s">
+        <v>112</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>408</v>
+      </c>
+      <c r="X50" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>411</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>412</v>
+      </c>
+      <c r="J51" t="s">
+        <v>413</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>414</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>415</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>416</v>
+      </c>
+      <c r="J52" t="s">
+        <v>417</v>
+      </c>
+      <c r="K52" t="s">
+        <v>418</v>
+      </c>
+      <c r="L52" t="s">
+        <v>419</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>420</v>
+      </c>
+      <c r="O52" t="s">
+        <v>112</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>408</v>
+      </c>
+      <c r="X52" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>422</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>423</v>
+      </c>
+      <c r="J53" t="s">
+        <v>424</v>
+      </c>
+      <c r="K53" t="s">
+        <v>425</v>
+      </c>
+      <c r="L53" t="s">
+        <v>426</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>427</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>408</v>
+      </c>
+      <c r="X53" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>429</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>430</v>
+      </c>
+      <c r="J54" t="s">
+        <v>431</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>119</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>432</v>
+      </c>
+      <c r="O54" t="s">
+        <v>112</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>408</v>
+      </c>
+      <c r="X54" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>433</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>434</v>
+      </c>
+      <c r="J55" t="s">
+        <v>435</v>
+      </c>
+      <c r="K55" t="s">
+        <v>436</v>
+      </c>
+      <c r="L55" t="s">
+        <v>437</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>408</v>
+      </c>
+      <c r="X55" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>440</v>
+      </c>
+      <c r="J56" t="s">
+        <v>441</v>
+      </c>
+      <c r="K56" t="s">
+        <v>442</v>
+      </c>
+      <c r="L56" t="s">
+        <v>443</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>444</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>446</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>447</v>
+      </c>
+      <c r="J57" t="s">
+        <v>448</v>
+      </c>
+      <c r="K57" t="s">
+        <v>449</v>
+      </c>
+      <c r="L57" t="s">
+        <v>450</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>451</v>
+      </c>
+      <c r="O57" t="s">
+        <v>112</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>453</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>454</v>
+      </c>
+      <c r="J58" t="s">
+        <v>455</v>
+      </c>
+      <c r="K58" t="s">
+        <v>456</v>
+      </c>
+      <c r="L58" t="s">
+        <v>457</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>458</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>459</v>
+      </c>
+      <c r="X58" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>462</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>463</v>
+      </c>
+      <c r="J59" t="s">
+        <v>464</v>
+      </c>
+      <c r="K59" t="s">
+        <v>465</v>
+      </c>
+      <c r="L59" t="s">
+        <v>466</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>467</v>
+      </c>
+      <c r="O59" t="s">
+        <v>112</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>469</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>470</v>
+      </c>
+      <c r="J60" t="s">
+        <v>464</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>475</v>
+      </c>
+      <c r="J61" t="s">
+        <v>476</v>
+      </c>
+      <c r="K61" t="s">
+        <v>477</v>
+      </c>
+      <c r="L61" t="s">
+        <v>478</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>467</v>
+      </c>
+      <c r="O61" t="s">
+        <v>112</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>480</v>
+      </c>
+      <c r="J62" t="s">
+        <v>481</v>
+      </c>
+      <c r="K62" t="s">
+        <v>482</v>
+      </c>
+      <c r="L62" t="s">
+        <v>483</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>485</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>486</v>
+      </c>
+      <c r="J63" t="s">
+        <v>487</v>
+      </c>
+      <c r="K63" t="s">
+        <v>488</v>
+      </c>
+      <c r="L63" t="s">
+        <v>489</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>490</v>
+      </c>
+      <c r="O63" t="s">
+        <v>130</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>491</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>492</v>
+      </c>
+      <c r="J64" t="s">
+        <v>493</v>
+      </c>
+      <c r="K64" t="s">
+        <v>494</v>
+      </c>
+      <c r="L64" t="s">
+        <v>495</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>490</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>496</v>
+      </c>
+      <c r="X64" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>499</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>500</v>
+      </c>
+      <c r="J65" t="s">
+        <v>501</v>
+      </c>
+      <c r="K65" t="s">
+        <v>502</v>
+      </c>
+      <c r="L65" t="s">
+        <v>503</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>504</v>
+      </c>
+      <c r="O65" t="s">
+        <v>112</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>505</v>
+      </c>
+      <c r="X65" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>508</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>509</v>
+      </c>
+      <c r="J66" t="s">
+        <v>510</v>
+      </c>
+      <c r="K66" t="s">
+        <v>511</v>
+      </c>
+      <c r="L66" t="s">
+        <v>512</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>513</v>
+      </c>
+      <c r="X66" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>516</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>517</v>
+      </c>
+      <c r="J67" t="s">
+        <v>518</v>
+      </c>
+      <c r="K67" t="s">
+        <v>519</v>
+      </c>
+      <c r="L67" t="s">
+        <v>520</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>521</v>
+      </c>
+      <c r="O67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>523</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>524</v>
+      </c>
+      <c r="J68" t="s">
+        <v>525</v>
+      </c>
+      <c r="K68" t="s">
+        <v>526</v>
+      </c>
+      <c r="L68" t="s">
+        <v>527</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>528</v>
+      </c>
+      <c r="O68" t="s">
+        <v>112</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>529</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>530</v>
+      </c>
+      <c r="J69" t="s">
+        <v>531</v>
+      </c>
+      <c r="K69" t="s">
+        <v>532</v>
+      </c>
+      <c r="L69" t="s">
+        <v>533</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>528</v>
+      </c>
+      <c r="O69" t="s">
+        <v>69</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>534</v>
+      </c>
+      <c r="X69" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>537</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>538</v>
+      </c>
+      <c r="J70" t="s">
+        <v>539</v>
+      </c>
+      <c r="K70" t="s">
+        <v>540</v>
+      </c>
+      <c r="L70" t="s">
+        <v>541</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>542</v>
+      </c>
+      <c r="O70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>534</v>
+      </c>
+      <c r="X70" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>544</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>545</v>
+      </c>
+      <c r="J71" t="s">
+        <v>546</v>
+      </c>
+      <c r="K71" t="s">
+        <v>547</v>
+      </c>
+      <c r="L71" t="s">
+        <v>548</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>549</v>
+      </c>
+      <c r="O71" t="s">
+        <v>211</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>550</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>551</v>
+      </c>
+      <c r="J72" t="s">
+        <v>552</v>
+      </c>
+      <c r="K72" t="s">
+        <v>553</v>
+      </c>
+      <c r="L72" t="s">
+        <v>554</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>555</v>
+      </c>
+      <c r="O72" t="s">
+        <v>69</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>556</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>557</v>
+      </c>
+      <c r="J73" t="s">
+        <v>558</v>
+      </c>
+      <c r="K73" t="s">
+        <v>559</v>
+      </c>
+      <c r="L73" t="s">
+        <v>560</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>549</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>562</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>563</v>
+      </c>
+      <c r="J74" t="s">
+        <v>564</v>
+      </c>
+      <c r="K74" t="s">
+        <v>565</v>
+      </c>
+      <c r="L74" t="s">
+        <v>566</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>567</v>
+      </c>
+      <c r="O74" t="s">
+        <v>69</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>568</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>569</v>
+      </c>
+      <c r="J75" t="s">
+        <v>570</v>
+      </c>
+      <c r="K75" t="s">
+        <v>571</v>
+      </c>
+      <c r="L75" t="s">
+        <v>572</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>567</v>
+      </c>
+      <c r="O75" t="s">
+        <v>211</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>573</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>574</v>
+      </c>
+      <c r="J76" t="s">
+        <v>575</v>
+      </c>
+      <c r="K76" t="s">
+        <v>576</v>
+      </c>
+      <c r="L76" t="s">
+        <v>577</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>578</v>
+      </c>
+      <c r="O76" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>534</v>
+      </c>
+      <c r="X76" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>580</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>581</v>
+      </c>
+      <c r="J77" t="s">
+        <v>582</v>
+      </c>
+      <c r="K77" t="s">
+        <v>583</v>
+      </c>
+      <c r="L77" t="s">
+        <v>584</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>555</v>
+      </c>
+      <c r="O77" t="s">
+        <v>69</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>534</v>
+      </c>
+      <c r="X77" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>586</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>587</v>
+      </c>
+      <c r="J78" t="s">
+        <v>588</v>
+      </c>
+      <c r="K78" t="s">
+        <v>589</v>
+      </c>
+      <c r="L78" t="s">
+        <v>590</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>555</v>
+      </c>
+      <c r="O78" t="s">
+        <v>112</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>592</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>593</v>
+      </c>
+      <c r="J79" t="s">
+        <v>594</v>
+      </c>
+      <c r="K79" t="s">
+        <v>595</v>
+      </c>
+      <c r="L79" t="s">
+        <v>596</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>534</v>
+      </c>
+      <c r="X79" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>598</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>599</v>
+      </c>
+      <c r="J80" t="s">
+        <v>600</v>
+      </c>
+      <c r="K80" t="s">
+        <v>601</v>
+      </c>
+      <c r="L80" t="s">
+        <v>602</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>603</v>
+      </c>
+      <c r="O80" t="s">
+        <v>112</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>605</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>606</v>
+      </c>
+      <c r="J81" t="s">
+        <v>607</v>
+      </c>
+      <c r="K81" t="s">
+        <v>608</v>
+      </c>
+      <c r="L81" t="s">
+        <v>609</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>610</v>
+      </c>
+      <c r="O81" t="s">
+        <v>112</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>534</v>
+      </c>
+      <c r="X81" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>612</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>613</v>
+      </c>
+      <c r="J82" t="s">
+        <v>614</v>
+      </c>
+      <c r="K82" t="s">
+        <v>615</v>
+      </c>
+      <c r="L82" t="s">
+        <v>616</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>617</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>618</v>
+      </c>
+      <c r="J83" t="s">
+        <v>619</v>
+      </c>
+      <c r="K83" t="s">
+        <v>620</v>
+      </c>
+      <c r="L83" t="s">
+        <v>621</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>622</v>
+      </c>
+      <c r="O83" t="s">
+        <v>112</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>534</v>
+      </c>
+      <c r="X83" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>624</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>625</v>
+      </c>
+      <c r="J84" t="s">
+        <v>626</v>
+      </c>
+      <c r="K84" t="s">
+        <v>627</v>
+      </c>
+      <c r="L84" t="s">
+        <v>628</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>629</v>
+      </c>
+      <c r="O84" t="s">
+        <v>211</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>631</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>632</v>
+      </c>
+      <c r="J85" t="s">
+        <v>633</v>
+      </c>
+      <c r="K85" t="s">
+        <v>634</v>
+      </c>
+      <c r="L85" t="s">
+        <v>635</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>636</v>
+      </c>
+      <c r="O85" t="s">
+        <v>112</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>637</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>638</v>
+      </c>
+      <c r="J86" t="s">
+        <v>639</v>
+      </c>
+      <c r="K86" t="s">
+        <v>640</v>
+      </c>
+      <c r="L86" t="s">
+        <v>641</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>642</v>
+      </c>
+      <c r="O86" t="s">
+        <v>112</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>643</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>644</v>
+      </c>
+      <c r="J87" t="s">
+        <v>645</v>
+      </c>
+      <c r="K87" t="s">
+        <v>646</v>
+      </c>
+      <c r="L87" t="s">
+        <v>647</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>648</v>
+      </c>
+      <c r="O87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>534</v>
+      </c>
+      <c r="X87" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>650</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>651</v>
+      </c>
+      <c r="J88" t="s">
+        <v>652</v>
+      </c>
+      <c r="K88" t="s">
+        <v>653</v>
+      </c>
+      <c r="L88" t="s">
+        <v>654</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>655</v>
+      </c>
+      <c r="O88" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>534</v>
+      </c>
+      <c r="X88" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>657</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>658</v>
+      </c>
+      <c r="J89" t="s">
+        <v>659</v>
+      </c>
+      <c r="K89" t="s">
+        <v>660</v>
+      </c>
+      <c r="L89" t="s">
+        <v>661</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>662</v>
+      </c>
+      <c r="O89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>534</v>
+      </c>
+      <c r="X89" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>664</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>665</v>
+      </c>
+      <c r="J90" t="s">
+        <v>666</v>
+      </c>
+      <c r="K90" t="s">
+        <v>667</v>
+      </c>
+      <c r="L90" t="s">
+        <v>668</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>534</v>
+      </c>
+      <c r="X90" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>670</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>671</v>
+      </c>
+      <c r="J91" t="s">
+        <v>672</v>
+      </c>
+      <c r="K91" t="s">
+        <v>673</v>
+      </c>
+      <c r="L91" t="s">
+        <v>674</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>534</v>
+      </c>
+      <c r="X91" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>676</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>677</v>
+      </c>
+      <c r="J92" t="s">
+        <v>678</v>
+      </c>
+      <c r="K92" t="s">
+        <v>679</v>
+      </c>
+      <c r="L92" t="s">
+        <v>680</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>534</v>
+      </c>
+      <c r="X92" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>682</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>683</v>
+      </c>
+      <c r="J93" t="s">
+        <v>684</v>
+      </c>
+      <c r="K93" t="s">
+        <v>685</v>
+      </c>
+      <c r="L93" t="s">
+        <v>686</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>534</v>
+      </c>
+      <c r="X93" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>688</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>689</v>
+      </c>
+      <c r="J94" t="s">
+        <v>690</v>
+      </c>
+      <c r="K94" t="s">
+        <v>691</v>
+      </c>
+      <c r="L94" t="s">
+        <v>692</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>534</v>
+      </c>
+      <c r="X94" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7175</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>694</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>695</v>
+      </c>
+      <c r="J95" t="s">
+        <v>696</v>
+      </c>
+      <c r="K95" t="s">
+        <v>697</v>
+      </c>
+      <c r="L95" t="s">
+        <v>698</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>534</v>
+      </c>
+      <c r="X95" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>699</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_797.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_797.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="792">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Douglas D</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Was attending a convention @ the Long Beach Convention Center, so this was a good place to stay. The hotel was a good deal for the money and was only 1/2 mile from the convention center and close to Von's Supermarket and many restaurants.More</t>
   </si>
   <si>
+    <t>glent476</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r582672071-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Ok hotel, can be a lot of homeless outside on street at times. Close to restaurants and a Vons. Walking distance to convention center and aquarium. Has soap and shampoo dispensers on shower wall and by sink. In process of remodel.More</t>
   </si>
   <si>
+    <t>Sean O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r582647404-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Construction worker sleeping in bed and no resolution from staff. change of room, area was dirty going to second level of motel. Room smelled like cigarette smoke and notified staff, but no other rooms available except for the one that the worker was sleeping inMore</t>
   </si>
   <si>
+    <t>Valerie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r575269510-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>Travelodge! You said “YES! THERE IS ROOM IN THE INN!” Restaurant, grocery, and the beach right at our fingertips! At a price that we could not believe! You proved excellent! We will return! Thank you!More</t>
   </si>
   <si>
+    <t>Dn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r573836654-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>Room was dirty. Carpet as so bad had to have shoes and socks on.  When I pulled back the bedding a Crack Pipe fell on the floor.  Sheets appeared unchanged.  Went to main Desk right away.  They did not investigate, call Police or appear concerned.  Moved us to another room which was also dirty.  We drove from Northern Oregon to Long Beach in 1 day in order to board our Cruise Ship the next morning.  Too tired to hunt for another place to stay.  The next morning when we checked out we did not get an apology, a discount or the smallest of acknowledgement that we had been exposed to drugs in their facility.  When I had Booking agency look into it, the Dump felt they owed us nothing.More</t>
   </si>
   <si>
+    <t>lkohli9200</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r565360177-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>I booked this for our soccer club with a group reservation rate and when we checked in they refused to honor the rate.  We ended up leaving and not staying.  Worst customer service ever.  This place is a rip off.  More</t>
   </si>
   <si>
+    <t>floridalibn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r549057263-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>This was a horrible dump. I don't know how they stay in business, not having the basics that pretty much any hotel has these days. To start, the elevator smelled like death (and the walls were carpeted, holding in the death smell forever). Getting out, we walked down  an ugly, bleak hallway to our ugly, bleak room. The death bells tolled as we saw that the room right next door was open and under heavy construction. As we entered the room, the construction guy next door came over and was like "yeah, we'll be working for about four more hours." So why on earth would the desk clerk give us this particular room???? So we went back in the death elevator to the desk where we got another room and schlepped our luggage to it. The furniture was mismatched and probably would not sell for $6 in a garage sale. Pros: we did not die, the internet worked, and we were only staying one night. Oh, and we paid $136 for this beauty.More</t>
   </si>
   <si>
+    <t>Jason H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r544102906-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>Clean, not bad, just old. Excellent restaurant downstairs! Fantastic place for breakfast. Nice grocery store next door. I stayed for a business trip and it was perfectly adequate and well-priced, but definitely a little shabby.More</t>
   </si>
   <si>
+    <t>LBVisitor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r543859771-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Quaker0ats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r521471507-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -420,6 +450,9 @@
     <t>The property name would suggest a civc-minded attitude.  Afraid not. Everyone I encountered at the desk had the "customer is wrong" attitude, it seemed, and the motel in general was cold.  The room phone came with a list of regulations that told me just to stay away from it if I didn't want go be hit with ridiculous extra charges, and I stayed away.  The elevator was slow to come when buzzed, but then the door slams shut in an instant.  No breakfast, and while the coffee in the room was OK, no artificial sweetener was available. No explanation--they just don't have it.More</t>
   </si>
   <si>
+    <t>anaducks35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r514831247-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t>Location was convenient for the convention center. Staff was friendly and price wasn't bad. Parking lot is very small but all parking in long beach sucks. More</t>
   </si>
   <si>
+    <t>H7087JPdaniell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r511039573-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -462,6 +498,9 @@
     <t>Responded August 11, 2017</t>
   </si>
   <si>
+    <t>Pete S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r504835441-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -486,6 +525,9 @@
     <t>Stayed 3 nights on business. The rooms have been upgraded and renovated nicely. The fit and finish was not the best, fresh paint, tile floors, upgraded TV and blinds was nice. Had a problem with the plumbing so they had me moved to another room without a fuss. The outside needs an upgrade to match the inside. It is only a 15 minute walk to the Long Beach Convention Center, close to Vons and alot of places to eat. I will stay there again.More</t>
   </si>
   <si>
+    <t>522unhappy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r502200423-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -498,6 +540,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>lucky90210</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r496500295-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -522,6 +567,9 @@
     <t>Horrible place, ZERO STARS - low end room, stinky, noisy, ice machine noise all night,  dirty, NO INTERNET, I spent 3 hours trying to get internet to no avail, just lame excuses, Stay away, and the manager Dennis is a liar, promised to credit the room but still charged, STAY AWAY from these cheatersMore</t>
   </si>
   <si>
+    <t>Todd F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r492213342-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -540,6 +588,9 @@
     <t>Responded June 14, 2017</t>
   </si>
   <si>
+    <t>118doj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r490235106-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -564,12 +615,18 @@
     <t>It started bad, the room that i was given was not clean and done. When i went back to the fron t desk they gave me a new room and it was amazing accomdations. It was better than the original room. Parking was a hassle not enough parking places.More</t>
   </si>
   <si>
+    <t>lc732017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r490128591-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
     <t>490128591</t>
   </si>
   <si>
+    <t>Maria C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r483560087-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -594,6 +651,9 @@
     <t>I think it's a great hotel, it's close to business establishments and restaurants. It was close to the jazz festival. The staff was very helpful and attentive. Best of all was the location of the hotel and the service was excellent. If I have the opportunity to go to the same city, I would definitely stay at the same hotel.More</t>
   </si>
   <si>
+    <t>marthao704</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r482929043-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -606,6 +666,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Jeff F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r469144237-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -633,6 +696,9 @@
     <t>It's not a Ritz Carlton, but it has Good location, good price, spacious room, Clean, small balcony, free parking ( a must in LB) Free internetBetter than a motel 6! Too bad the staff is not very friendly!But I will go back!More</t>
   </si>
   <si>
+    <t>Shannii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r439203686-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -661,6 +727,9 @@
   </si>
   <si>
     <t>This was another cheap place booked as we were only in Long Beach for one night until we left for our cruise to Mexico. Service was not very good at all, no smile no help no nothing. Room was nice and big and comfortable and it is certainly well located near everything you could need. Bathroom was the smallest I've ever seen in a hotel, the door barely opened past the toilet. More</t>
+  </si>
+  <si>
+    <t>vicjm2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r428927971-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
@@ -698,6 +767,9 @@
 Checking was the best experience for me in a very ling time. Under no circumstances will I...Being a weekly traveler, lets just say I have stayed in hundreds of hotels over the past 16 years. On a recent trip to Long Beach CA. I accidentally booked a room in the Travelodge; with limited space in town, I decided to stay. Once in the room, I realized I probably shouldve gone elsewhere, but thought, it cant be that bad.I was there 4 nights, not ONCE during my stay did I experience any warm water, I wouldve preferred hot water, but it never got warm. It made for some qick showers. The carpet was nasty &amp; warn in several places. Definitely needed slippers or flip flops here. The towels were more like cheap paper towels. The parking lot was very small and I was blocked in 2 of my 4 days of staying there. I questioned the desk clerk about moving cars to get my vehicle out, I was told I would have to wait for the csr owners to move them. I questioned the staff about the water &amp; was told the problem was being worked on.!! Additional towels were given to me, but they were all just as thin, almost transparent. I left notes to have bulbs placed the lamps, this was never done. The only light came from the bathroom near the entry door to the room.Checking was the best experience for me in a very ling time. Under no circumstances will I ever revisit this hotel.!!!!!More</t>
   </si>
   <si>
+    <t>Lorigee630</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r428290525-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -722,6 +794,9 @@
     <t>Upon or arrival to the hotel it was discovered that the hotel did not have a free shuttle like they stated on their website.  As that was the main reason for choosing the Travelodge I was very disappointed.  The manager refused to refund my reservation.  The hotel lobby was so filthy I didn't care to look at a room and therefore forfeited my reservation.  Hotels.com did refund a portion of my cost even though they were under no obligation to do so.  The hotel certainly did not look like the pictures that were posted on the website.More</t>
   </si>
   <si>
+    <t>thenaynay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r410347317-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -749,6 +824,9 @@
     <t>There isn't anything positive to write about this hotel.At the time we were in Long Beach for business at the Convention Center, we thought that this hotel would be cost effective and convenient. Boy were we wrong!At the time of this trip I was using a knee cart due to foot problems. I had a handicap plaque for our car. There were no parking spaces in the lot, which they share with a breakfast cafe. So we ended up having to park our car at the convention center which was a half mile away and walk to the hotel during out stay. The elevator alarm (which was right outside our room) went off the first night we were there. After 20 minutes my husband went to ask the front desk if the would turn it off and they responded that they would 'try' to turn it off. Then there were the gang graffiti INSIDE THE ROOM! There was blood on the wall, a weird yellow stain on the sheets and a broken acrylic nail on the floor. I called Wyndham Hotels to complain and instead of issuing me a refund they gave me 15,000 Wyndham points for my next stay and an apology. Stay away from this hotel!More</t>
   </si>
   <si>
+    <t>Rob B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r404279973-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -776,6 +854,9 @@
     <t>Stayed 1 week in a double room.  Location is convenient to downtown and bus routes.The rooms are definitely somewhat dated and a bit daggy but most importantly our room was clean and well serviced each morning.The motel could defiantly do with some new equipment.  Our coffee pot did not work, no plug for bath, plastic chairs on balcony were a lawsuit waiting to happen, likewise the chairs around the pool.All in all we were happy considering the price and location to downtown Long Beach.  If you are accustomed to 4 or 5 star - look somewhere else .....More</t>
   </si>
   <si>
+    <t>Colleen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r401096042-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -794,6 +875,9 @@
     <t>Well I hate to complain but I'm going to have to.. the room smelled of urine and cigarettes!! They did put me on the Upper Floor as I ask but if you could stay somewhere else so I would recommend that.. there was a convention in town when I stay there they jacked up the room price to $160. Which is ridiculous for this run-down crappy Hotel I felt very ripped off.. next year I will plan better and definitely stay in a nice hotel and I'm a pretty simple girl but this place was pretty gross..More</t>
   </si>
   <si>
+    <t>Jessica L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r367445570-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -821,6 +905,9 @@
     <t>We have stayed here a few times. We like the rooms with a balcony. Can sit outside and relax and people watch. Beds are somewhat comfortable. Did hear some outside hallway noise this trip, but to be expected at times depending on who is walking by and doesn't care that others could be sleeping. There is a restaurant right next door, the last time we came it was a Mexican restaurant. This time was called The Breakfast Bar (I believe was the name) This place was packed both days we were there. We wanted to try it so badly, maybe next time. But there was always a wait, so it must be good. Staff has always been very friendly. This hotel is close to downtown and within walking distance to so many restaurants, bars and attractions including the Long Beach Aquarium. We never drive around town, we walk about 15-20 mins to get to The Pike area. Very relaxing out here. We came this visit for a Concert at the Queen Mary. Took a Taxi from just before The Pike area over to Queen Mary for about $12.50, would have been cheaper without traffic, as on way back was $8.00. We will definitely stay here again and actually already booked another trip for August for another concert at the Queen Mary.More</t>
   </si>
   <si>
+    <t>Raggz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r365875584-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -839,6 +926,9 @@
     <t>Looked at reviews before booking and thought it would be fine. There was all sorts of much needed construction and my room was supposed to be non smoking but it sure did not smell like it. Very cold looking and looking into other rooms was pretty nasty.More</t>
   </si>
   <si>
+    <t>dtbailla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r358351644-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -866,6 +956,9 @@
     <t>After reading some of the reviews on this place I was a bit worried. Most of these worries proved to be unfounded as this hotel was ok and worked well for my needs. I attended a conference at the convention center and this hotel is within walking distance. Can also walk to the aquarium and resteraunts/shops downtown. Location is very good. Internet was free and worked well. Bathroom was clean. Room itself was a bit dated and the bed was uncomfortable. Loud place with the sounds of traffic and other folks going in and out at night. Book the conference hotel if you can, if you don't want to pay that money or the others are booked this place will work.More</t>
   </si>
   <si>
+    <t>Ladislav B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r341970574-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -887,6 +980,9 @@
     <t>We came with our car, no as guest but absolutely perfect reception offered us parking lot for our car and internet conection.We are glad we got these services free. Its mean that this place is very good for all travelers and ready to help.Place around is clean and safety, very popular, we can recomend!More</t>
   </si>
   <si>
+    <t>beachcruizer77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r333771978-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -908,6 +1004,9 @@
     <t>This hotel is in a good location. You can walk to restaurants, the beach and bars. We had a balcony which was nice.  The hotel could use some updating but if you are just passing through and need a place to spend the night it's ok.More</t>
   </si>
   <si>
+    <t>Robysmom98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r328780872-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -926,6 +1025,9 @@
     <t>I was very reluctant to stay here as soon as I walked to my room.  The hallways and elevator looked more like a tenemant building than a hotel.  However, I was relieved when I got to my room. The room smelled fresh and clean as soon as I walked in. The furniture looked beaten up but the room was cozy. There was a flatscreen t.v. with cable and HBO as well as WiFi. A refrigerator was also in the room.  The bathroom needed some work but was clean and usable. I had a private balcony which was nice to people watch as I passed the time. The bed was comfortable and I had a good night's sleep. Great location and close to all of downtown activities and restaurants. I do think it was a too much money for the quality of the room. I am assuming it was due to it's location and the fact that it is close to all of downtown activities. It was good for the one night I was staying.More</t>
   </si>
   <si>
+    <t>T H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r311141209-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -947,6 +1049,9 @@
     <t>Read the reviews! All of the negative ones are correct.  Lesson learned for me, I will read them all from now on. Pay a little more and be safe and comfortable.  Down right dirty hotel!  We didn't stay long enough to take photos.More</t>
   </si>
   <si>
+    <t>IsmaelT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r306125512-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -968,6 +1073,9 @@
     <t>I planned to stay in a different hotel for 5 days but switched to this one and have no regrets. Good price, perfect location, free parking, Wi-Fi, fridge. It also has an elevator which was very convenient. The housekeeping team was very friendly and committed.I would recommend this property to all my friends or family visiting the area.More</t>
   </si>
   <si>
+    <t>athistle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r299537895-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -986,6 +1094,9 @@
     <t>The room sheets were stained, the bathtub drain was clogged and wouldn't drain properly, the towels were terrible and had hair on them. The trim on the room wasn't finished and the window looked like it had mould on it. Not a good experience at all!More</t>
   </si>
   <si>
+    <t>April885</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r283715355-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1013,6 +1124,9 @@
     <t>We picked this hotel for a last minute business trip and we were sorry!  The hallway to the room was dark and dingy.  The elevator sounded and smelled like it was about to blow up.  The carpet was so filthy, I dropped a towel on the floor, stepped on it, picked it up and it was black!  There was human feces next to the elevator the first morning!  I should have left then.  The second morning there was a broken water pipe in the hallway and vomit in front of the entrance to the office!  Do not stay here.  So gross....More</t>
   </si>
   <si>
+    <t>Tarik K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r274571836-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1040,6 +1154,9 @@
     <t>Definitely not worth the price. $140 for Motel 6 quality at best? Next time, I would rather pay $60 for a much better place in LAX area and drive if I have to. Very noisy place, I stayed at first floor and woke three times at night.More</t>
   </si>
   <si>
+    <t>Julie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r269648785-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1052,6 +1169,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Diana K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r262365592-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1070,6 +1190,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r257578796-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1094,6 +1217,9 @@
     <t>This is a $55 a night hotel posing as one that believes it can charge $100...The property is old with a small parking lot, only one elevator on one side of the property, and a tiny box for a front desk.The rooms are small too and need new carpeting and they need to take those rediculous wooden blinds down as they do not black out the room.Towels were rather thin and tired like they need replacing.Furniture and beds need to be replaced as they are hard and of poor quality.Bathroom is tiny and there did seem to be hot water but the shower head sucked.Instead of wasting money on a pea sized pool that has gunk floating in it, just close it down and cement over it since it's not taken care of.No microwave in room.Not enough open outlets to plug your electronics in.The room keys are super sensitive so if you leave chances are it won't work when you come back.Housekeeping people are noisy and carry on loud conversations the whole motel can hear.Only pros I can say would be they had decent tv and fast enough internet.If you want to spend $100 a night and have it worth your money I suggest the comfort inn  or one of the best westerns.More</t>
   </si>
   <si>
+    <t>Bruce M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r255689316-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1112,6 +1238,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>101NDTraveler2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r252141785-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1133,6 +1262,9 @@
     <t>I do think they should charge less for rooms.  The bed was comfy but the room was run down and grungy.  I stayed in this motel 5 years ago and I doubt if they have updated anything.  It is a great location and cleaning staff does the best it can with the rooms.  If you are just looking for a a good bed, clean shower and sink this will serve your need.  If you look at the tears in the wall paper, the lamp,shades that are torn. The mattress covers that are half Thersa Nd a dark room this is your spot.  Itmwasmquietmat night and is convienent to downtown but I think you can do better.  I do not think I will ever stay there again.  I do think the evening and night staff were very nice.More</t>
   </si>
   <si>
+    <t>Victor R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r251429480-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1151,6 +1283,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>billymac762015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r250557540-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1169,6 +1304,9 @@
     <t>This was a run down hotel, the bathroom toilet backed uo and the staff gave  me a plunger to rectify the problem, the walls were also paper thin. I could hear the person in the room next door snoring all night. I must admit though that the staff were quite pleasantMore</t>
   </si>
   <si>
+    <t>christina0023</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r243531458-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1190,6 +1328,9 @@
     <t>Don't waste your time or money on this place. Looks nice from the outside. I used credit card points for a free night stay for a night before we departed for Catalina Island the next day. Got a non-smoking queen room. To start the room smelled like urine and mold, it was awful! The security latch on the door was broken, the carpet was damp and there were dark stains on the white sheets. The remote control to the TV had missing buttons, the bathroom door lock was broken and in the middle of the night we were awaken by police action down the hall. No elevator so we had to haul our luggage up the stairs (which was the least of our problems at this awful place!). I could not wait to get out of this place, yes it was that bad! I would advise you NOT to stay here!!More</t>
   </si>
   <si>
+    <t>vicki15031953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r238374336-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1214,6 +1355,9 @@
     <t>We stayed here on the 10th October overnight prior to joining a cruise. The receptionist spoke very broken English, he had only just started there and obliviously had no training, We found our check-in painful. Once in our room it was very smelly and dirty. Found old grapes and a drink bottle next to the bed. Power points didn't work, coffee machines (2) broken, air conditioner sounded like a jet engine when on. Not knowing the area we asked the receptionist where we could buy toiletries and were given a shopping centre to go to, This trip was to cost us about $30, but the cab ride cot $70 and took nearly 30 mins. We found our later that we could have walked for 10 mins to a local Mall.Would not recommend this place to anyone!!!!More</t>
   </si>
   <si>
+    <t>Denise C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r234778311-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1232,6 +1376,9 @@
     <t>The elevator was broken. We had a room on the 3 rd floor. The check in clerk helped us with our luggage ( the only bright spot). Behind the wall in the corner of our room was the housing for the exhaust fan for the downstairs restaurant. When it was on the room vibrated!! It was on when we arrived, off for a few hour in the evening and back on at 4 AM!!!!! NOT a good sleep was had by all.Not very clean run down room Bed OK.More</t>
   </si>
   <si>
+    <t>Al N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r204864094-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1259,6 +1406,9 @@
     <t>I stayed in this dump for 3 nights.  The first room I was offered smelled as though a family of male cats had lived there for a week.  I literally could not breathe and had to back out of the room before the door closed behind me.  The second room offered didn't smell quite so bad, and had the added bonus of free food:  a leftover piece of fried chicken, half eaten, sitting on top of the TV.  Much more nourishing than the typical mint on the pillow.The toilet didn't flush properly.  The carpet was sticky.  The a/c was noisy.  The breezeways were painted and illuminated to recreate the ambiance of cellblock 18 in your county jail.Did I mention the cockroach?Stay away.More</t>
   </si>
   <si>
+    <t>Nathan T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r199933142-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1271,6 +1421,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>TRGarcia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r191335777-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1292,6 +1445,9 @@
     <t>Travelodge should take their name off of this place, it is a dirty, noisy rundown multi room shack.  We arrived to homeless people in the parking lot. The elevator smelled of urine.  Our coffee maker still had coffee from the previous guest along with the old grounds.  The pictures on the website must have been taken after the remodel from 30 years ago.  Prepay through Expedia left us stuck, never again use either Expedia or Travelodge. Our room backed up to a noisy street of rundown apartments, definitely not Long Beaches best area.  It was not a bad walk to the Convention Center but I would not stay just for that, pay a little more for across the street at The Courtyard.  Definitely would not stay here with kids.  Luckily we had a blanket in the car to sleep on top of, didn't want to chance sleeping in the bed with their linens.More</t>
   </si>
   <si>
+    <t>Jon T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r181491613-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1313,6 +1469,9 @@
     <t>Went to the hotel for a race. No one knew what was going on. All of the people were new. Got to the room with peeling wallpaper and mold. Found out there was no tv service called the desk twice and finally got someone. No help said it was the cable company. Came backdrop the race and was chased out of the room by the maid even though I paid for a late checkout. Maid got the desk to call and chase us out. Forgot something in the room and tried to call and see if it was found. It took four calls just to get someone to answer and of course he was new and didn't know anything. It was the worse night I ever spent.More</t>
   </si>
   <si>
+    <t>Douglas A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r180876148-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1325,6 +1484,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>wmitchell123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r180434960-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1343,6 +1505,9 @@
     <t>Besides the customer service at the front desk was great, I paid 102.31 for 1 night assuming that at that price were decent not even close the days inn was 89.11 and was the best stay I had. Now with this room I purchased I came in the portion off the wall had rust or mold, um the seats were dirty as heck only room, the only room they had left was smoking, the doors was dirty, there were black ink on the walls, the tub was terrible there was rust around it, the sink was stopped up and the tub as well. I was scared to sleep in the bed. Smh the days inn I will go back next time.More</t>
   </si>
   <si>
+    <t>nicany</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r176368239-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1364,6 +1529,9 @@
     <t>Poor quality stay, stayed on 3rd fl above the office, you could hear outside chatter from the street, past 12am,  hallway noise, open parking, anyone could just ride their bike thru guest parking and I saw just that, couple times, no security guard to keep an eye on guests vehicle, that didn't put me at ease. room was smelly on arrival.   After AC gets going it goes away.  Not a pleasant welcome, not a clean feeling welcome, though at a glance all looks fearly clean, went to Von's and got bleach wipes to disinfect counters.   another annoying thing was, we pre paid thru booking.com for three days and every morning office blocked my door access card, that was unnecessary, I had to go to miniature office to get code fixed again.  On a positive the wifi did work on my iPad, and there's Von's nearby, subways, Rocco's and the the village Bakery which i recommend, was really convenient.  More</t>
   </si>
   <si>
+    <t>prophesee100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r162229850-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1385,6 +1553,9 @@
     <t>I stay at this hotel regularly for business reasons. My company does not pay for hotels and the driving distance is too great for me, so I need a low budget option. Travelodge fits the bill. It is not a full service establishment. Example, when I had some plumbing issues (Caused by me) I was handed a plunger for a "do it yourself job." Other than that the place is decent on cleanliness (I work in the medical field and am a HUGE germ-a-phobe). It's a great place to just put your head down...don't expect frills. There's also a great restaraunt next door called Galleanas (great Chicken Nachos). Luckily my job does not require me to use or need WiFi and when I did need WiFi for personal use, my laptop was broken, so I can't say what their WiFi is like.More</t>
   </si>
   <si>
+    <t>Weej1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r156020307-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1412,6 +1583,9 @@
     <t>As with so many budget hotels, these guys advertise free wi-fi and know darn well they do not have it. They are like all the other hotels that tell stories about how it will be fixed tomorrow or new equipment will be installed soon....blah, blah blah. At the end of the day, they are falsely advertising their services. I've been on a two week road trip from Vancouver to San Diego and in a different hotel every night. Every one advertised free wi-if and I can't remember a single one that actually provided a reliable connection. Most were lousy, and some, like the Long Beach Travelodge Convention Center just don't work at all.These days at a decent family hotel, a good Internet connection is worth ten times more than a postage-stamp sized swimming pool, which this place also boasts.And yes, my hardware works at every Starbucks and McDonald's I've stopped at.The lousy quality rating is because I could have stayed on a special rate at the Hyatt for the same price but I chose this place because the Hyatt makes no bones about no free wi-if...you pay. Instead here I got a two star room and still no wi-if, even if I wanted to pay!More</t>
   </si>
   <si>
+    <t>crookedhouse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r149820909-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1433,6 +1607,9 @@
     <t>Ok, should have known as other reviewers said; this 'motel' is not that close to the Convention Center.  Bad back, had a hard time walking so ended up cabbing to and from Convention Center and dinner appointments.  Building is cinder block, room very clean and lobby staff indifferent.  What I did like, the very nice maid knocked on my door shorltly after check in asked if the room was okay.  Large Sony flat screen great but hardly any choice of stations. Attached restuarant, Galeanas Grill, don't bother!  And like other reviewers, lloved that a huge Vons grocery store is one block away.  Will not stay again, bought my package on Hotwire, plane, hotel and airport tranfers.  For just a bit more I could have stayed at a much nicer hotel.More</t>
   </si>
   <si>
+    <t>NewJerseyMiles2Go</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r149792643-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1448,6 +1625,9 @@
     <t>My stay was brief but without any Drama.  Check in was a breeze and the Front Desk Staff was very friendly and efficient.   The Rooms had a nice large flat screen TV which worked well.  The hotel had a Von's Full Grocery Store next door.  The Rooms were spotless and cleaned very well and I give the cleaning crew 5 Stars.  The Beds were very comfortable. The surrounding area while not the Best Neighborhood I  experienced no problems but did not stray to far away from the Room at night.  As in other reviews for this Hotel the Hallways do echo somewhat but I am a sound sleeper and not a big distraction.     I did not try the Restaurant. Wifi worked great no problem.  Parking is free and my Auto was not disturbed during my Stay.  For the Business Traveler on a Budget this Hotel would be perfect! More</t>
   </si>
   <si>
+    <t>vincent0924</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r149302171-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1463,6 +1643,9 @@
     <t>Travel lodge is close to the convention center you can walk and this is a plus if you want to avoid parking problems and fees. I found the location so good it is close to the beach and the pacific coast highway. The room was clean with a small fridge , a coffee maker and 32" lcd tv. Everything is ok for the rate you are paying.The only thing that was a problem was the wifi it was super slow and hard to connect, but there is a  starbucks just around the corner if you need to use internet</t>
   </si>
   <si>
+    <t>Douglas M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r144643185-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1481,6 +1664,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>laurel r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r141595337-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1499,6 +1685,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Alexandra T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r140565504-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1523,6 +1712,9 @@
     <t>This hotel is within walking distance of the Convention Center and the free shuttle stops that will take you all around Long Beach. The room was clean, but laid out strangely. The bathroom door was right next to the bed and the sink area was by the front door. The pool was very small and there was no free breakfast offered. But it was only $85 per night, so it was adequate. On the night of our stay there were helicopters flying overhead every five minutes, rather disturbing.More</t>
   </si>
   <si>
+    <t>Pomeroyi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r134322714-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1550,6 +1742,9 @@
     <t>Stayed here for a conference at the convention centre. The convention center is about 10-15 minutes walk away, so it's pretty convenient. The first room I was put in was right next to the ice machine and the drinks machine, so I spent much of the first night being woken up by regular loud clunks. To the credit of the staff, they happily moved me to a different room which was much quieter.The rooms themselves are ok - beds are comfortable and its reasonably clean. This is good because the walk to your room makes you feel like you are going through a minimum security prison. Also, all the rooms seem to have the default air conditioning units for this kind of hotel - i.e. so loud you'd never be able to sleep with it on.There's also a nice little mexican restaurant on the same premises, where the barman was happy to serve me a beer even though they were officially closed.More</t>
   </si>
   <si>
+    <t>tntgymmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r133706990-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1574,6 +1769,9 @@
     <t>We lost $102 for an hour of misery in a dirty room looking desperately for other options. The room smelled of vomit and cigerettes although is was labeled as non smoking, and the carpet was sticky. When we found another place to stay we went and told them and they STILL charged us even though we were there for literally an hour. DON'T stay here ... Yuck!!More</t>
   </si>
   <si>
+    <t>Michelle D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r131304518-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1595,6 +1793,9 @@
     <t>It isn't 2 blocks away from the convention center more like a 10 minute brisk walk 15-20 minute stroll. The window into the open courtyard means you can hear all the noise in the hallways which was plenty for me. There were really inconsiderate people talking in the hallways until 3:00 am and then dribbling basketballs at 6:00 am and I heard it all. Also the room was supposed to be nonsmoking but my room had a definite smell nothing that a $4 can of Lysol from the Vons a block away didn't fix. New fixtures in the room were nice including "marble" top counters and tableThere's a nice Mexican restaurant downstairs that's reasonably priced and a ton of good local restaurants a block away on Broadway.More</t>
   </si>
   <si>
+    <t>abbywhoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r127077763-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1613,6 +1814,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>gidget_8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r126669266-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1637,6 +1841,9 @@
     <t>This is probably the lowest ranked hotel Ive ever stayed in. The sleep level and cleanliness was fine. The room had all the basic requirements and parking was free. I was a little perturbed about some of the patrons , there was a punk concert at The Queen Mary however. We made it out okay.More</t>
   </si>
   <si>
+    <t>Gina E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r125098924-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1658,6 +1865,9 @@
     <t>Room was clean, good size.  They did have a mini fridge, but wished they would have also had a microwave.  Staff was friendly and location wasn't bad, could walk to resturants and aquarium.More</t>
   </si>
   <si>
+    <t>Kristin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r120361521-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1676,6 +1886,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Pete A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r119924202-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1694,6 +1907,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>binder-dundatt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r119494763-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1712,6 +1928,9 @@
     <t>Not a bad location, downtown Long Beach.  Rooms were nice with recent updates.  Not much for thrills.  The Mexican restaurant in the parking lot is awesome with great service.  Just a little note, it's about a $12 cab ride to long beach cruise port and about $20 to San Pedro.  The front desk people get some kind of a kick back from the suggested car services and you will pay about $30.  We cabbed it from LAX to the Travelodge and paid $65.00.  You can usually rent a car from LAX and drop it at the Hertz rental right around the corner from the hotel for about $60.00 and you get to use it for a day.More</t>
   </si>
   <si>
+    <t>mandmtravelalot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r118028738-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1730,6 +1949,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>JaneLasVegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r117728881-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1743,6 +1965,9 @@
   </si>
   <si>
     <t>Went there for an event at the convention center.  The hotel is older but has been renovated and looks very nice.  it was clean and surprisingly quiet for a Labor Day weekend.  Shower could've had better flow but was manageable.  We asked for a balcony and it was very nice.  Free Wifi and parking.  The staff was friendly as well.  I would go back there</t>
+  </si>
+  <si>
+    <t>linda_derek</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r115936559-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
@@ -1776,6 +2001,9 @@
 The bathroom only has...THE ROOMAs the previous reviewer alluded to - the front office manages a separate reservation system.   You call them directly to book?  it won't show up in the Travelodge central reservation system.  If instead, you book your room through the central reservation system?  you may not get the room you asked for.In our case, we got a SMOKING room (our confirmed reservation through their 1800 number was for non-smoking).   However, we had asked to be put close to relatives' and the relatives had apparently accepted a smoking room (they are also non-smokers), so our room was in the smoking section of the hotel as well.   At check-in time, the front desk told us they can only give us a smoking room if we want to be close to our relatives.  They suggested we go check out the room and decide.   We tried it out, and thought we'd just put up with the stink.     But we later saw that the kids' feet were CHAR BLACK after walking across the carpet.     We kept as much of our stuff off the floor as we could.To the best of my knowledge, the beds were bug-free.    We also checked two other rooms belonging to our relatives'.  All bug-free.  There were two pillows per bed.  We went down to the front desk but they had run out of them.   They suggested we ask the cleaning lady in the morning.  The bathroom only has a single towel rack, and the cleaning staff insists on giving us towels for 2, everyday during our stay (we stayed almost a week).  Every night when we return to the room , we had to go to the front office for more towels.   Sure, a note to the cleaning staff would do the trick.  But surely the cleaning staff would have noticed the number of adult/children/male/female items in the room to realize there are more than 2 people staying here?       THE LOCATIONCan't be beat.  Parking is free (vs $10/day at the Marriott Courtyard across the street).   However, the parking spaces tend to get filled up quickly, plus California seems to boast the dual title of World's smallest parking spots and the World's most number of over-sized SUVs per capita.   Often we saw SUVs taking up 2 spots.  Or 3 spots next to each other could really only accomodate 2 cars.There is a very new-looking and good sized supermarket, VONS, just a block away.    The parking lot entrance of VONS is literally across the street from the Travelodge.   We were able to stock up on groceries and supplies easily.THE POOLIt wasn't 6x4 as some other reviewer described.  Or perhaps he was saying 6 by 4 metres.   In US Customary units, the pool is about 20 feet x 14 feet.   NOISEIt was NOISY at night.  But.  the key is to keep the air cond or fan unit on, and the humming of that unit will drown out everything.  The first night, we didn't know and turned the unit off and was treated to (it was a mid-week night) :   sirens of emergency vehicle at 1am.   People talking loudly and smoking right outside our door on the corridor around 2:30am.   Car alarm going off at 5:50am.  UGH.   We kept the air cond unit on for the rest of our stay and was able to sleep.STAFFNot sure if it's because of the locale (Long Beach), or if it's just the people who run the place, but these guys are friendly, laid back, but at the same time courteous and you can tell they want to help.   Even though we didn't think our accomodations were great, i have to say that my dealings with the front desk staff had been very good - from helping me get on their internet, to suggesting i use the office phone if i don't want to pay $1 for each 1800 call (although i then struggled with their office phone - seeing i wasn't having much success,  the desk person just handed me his personal cell phone to use for the few calls i needed to make!)We paid ~$80/night, AAA rate.     I'd say my review is mixed, some good, some not so good.   Perhaps if we had gotten a non-smoking room, we would have had a better experience.More</t>
   </si>
   <si>
+    <t>helpfulhousekeeper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r114402370-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1794,6 +2022,9 @@
     <t>The room was amazing.  It had a very comfortable, king size bed. It was perfect for two people. The location was fantastic withing walking distance of all the main attractions such as the Aquarium, Convention Center, Shoreline Village, Beach, etc. Great restaurants were very close as well.  The front desk staff was really condescending when he learned we had booked through priceline.com.  From that point on he was very short with us and would not answer any questions. They said they offered free wifi service, but its a slow connection when you can actually get it to work. If you ask the front desk staff for assistance they just repeatedly told me the name of the connection and my username/password combo. We requested no maid service the next morning and the front desk person made it seem like a huge deal he had to radio our housekeeper and tell her no service. They have a pool, but its about six feet long and five feet wide and the gate is padlocked but with the beach only a few blocks away...its not really a concern.  If you plan on being out seeing the sights for most of the days and just want a place to relax in the evening and sleep at night then this hotel is great. The location is perfect and if you don't need much then it is excellent. Staff could learn some customer service, and the internet...The room was amazing.  It had a very comfortable, king size bed. It was perfect for two people. The location was fantastic withing walking distance of all the main attractions such as the Aquarium, Convention Center, Shoreline Village, Beach, etc. Great restaurants were very close as well.  The front desk staff was really condescending when he learned we had booked through priceline.com.  From that point on he was very short with us and would not answer any questions. They said they offered free wifi service, but its a slow connection when you can actually get it to work. If you ask the front desk staff for assistance they just repeatedly told me the name of the connection and my username/password combo. We requested no maid service the next morning and the front desk person made it seem like a huge deal he had to radio our housekeeper and tell her no service. They have a pool, but its about six feet long and five feet wide and the gate is padlocked but with the beach only a few blocks away...its not really a concern.  If you plan on being out seeing the sights for most of the days and just want a place to relax in the evening and sleep at night then this hotel is great. The location is perfect and if you don't need much then it is excellent. Staff could learn some customer service, and the internet is horrible, but everything else was fantastic.More</t>
   </si>
   <si>
+    <t>StuartinFiji</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r113253240-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1812,6 +2043,9 @@
     <t>We had a trade show in Long Beach Convention Center, and we use this hotel as a good alternative to the way too expensive for us Hyatt... This is the 2nd year we have stayed here so we liked it enough to come backLong Beach Convention Center is within walking distance, only a couple of blocks, and you walk right past the FedEx Office where we get all our printing done.Room was a little musty, but overall clean. Beds were comfy, and room was well maintained (no dings or broken bits).This last visit over the weekend was very noisy with large families staying, and lots of kids running up and own the corridors...The Wifi signal is adequate in most of the rooms. Free parking is a bonus in this town near the waterfront.More</t>
   </si>
   <si>
+    <t>meowingcats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r112896554-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1830,6 +2064,9 @@
     <t>Stayed here for ink n iron.  Cheapest room around.Burn marks on the wall.  Blob of dried blood on the ceiling...horrible coffeemaker and the beds feel like they're a 100 years old!!!!!!NOISY. NOISY. NOISYI've learned my lesson....Marriott us worth the price!!!!More</t>
   </si>
   <si>
+    <t>OceansideGreg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r107306317-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1851,6 +2088,9 @@
     <t>Booked this hotel as it was close to the convention center and inexpensive (on a public university budget - had to find something cheap!).  Then I read the reviews and thought it may be better to sleep in a cardboard box.  Turns out everything was great.  I rate this hotel 4 stars as it is a great value proposition and is located near the convention center (last stay was at a Mandarin Oriental and I would rate the experience lower, but of course there's no comparing the two in terms of style and luxury). The gentleman who checked us in was friendly and offered a complimentary newspaper.  Parking is convenient and the room was tidy and clean.  Great water pressure for the shower and there was even a complimentary travel sized toothpaste provided.  Check out was quick and efficient.More</t>
   </si>
   <si>
+    <t>ETHgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r97629588-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1872,6 +2112,9 @@
     <t>This hotel was horrible.  It didn't look like it's pictures at all.  I had a confirmation for a non-smoking room but didn't receive it.  Front office smelled funny.  Staff very unfriendly.  No on-site restaurant as advertised.  Total waste of time and money.More</t>
   </si>
   <si>
+    <t>tash2381</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r93898298-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1887,6 +2130,9 @@
     <t>Wanted somewhere cheap to stay for few days. Room was very big, very clean and had all amenities. Excellent location. Would recommend</t>
   </si>
   <si>
+    <t>lnav39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r64937381-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1908,6 +2154,9 @@
     <t>These rooms are  horrible to stay in, rooms smelled liked mildew, shower walls had mole growing.  General Manager Dennis Patel  never returned  phone calls until after he recieved  my complaint from customer service. they do not have security onsite General Managers response wa theya re a small company we had some problems with people partying all night called night clerk no response in tehmiddle of teh night.  General manager  did not want to  credit us. Over PricedMore</t>
   </si>
   <si>
+    <t>Capthook</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r61838370-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1929,6 +2178,9 @@
     <t>Needed a room overnight and saw that this property was a great value for the location. I had visited friends who booked a room there back in 2004, and I was nonplussed with the room back then.   Fast Forward 6 years:    The room was clean and well appointed (coffee, refrig, flat panel TV with digital cable, very new-feeling beds, etc.), but the real difference is due to the management and their attention to detail when it comes to their customers.   In prior years I had stayed at the BW (1 block N), and loved the room, but hated all the hoops I had to jump through (and spent substantially more in the process of jumping through those hoops) that thier rules placed in front of me.   I have seen reviews of this property run the gamut from "dump" to "excellent", and I'm going to skew the bell curve towards the "excellent" side due to the inspired work by the management and staff.  My friend and me commend the staff on giving us a very pleasant stay (at a SMOKIN' price!!!).   Mr. WagnerMore</t>
   </si>
   <si>
+    <t>travingisme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r59277513-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1947,6 +2199,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>arlene70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r33407201-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1965,6 +2220,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>gigi08Georgia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r25757607-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1986,6 +2244,9 @@
     <t>I wish that I had read these reviews, before I stayed here.  Hotel was listed as 4 star with travel rewards and obviously no one polices travel lodge policies. Ratings on the reward system can not be trusted.  After I reported that there was no pool, restuarant (next to hotel)  was not open for business and room were dark and old furnitue, nanger only called to agree with me and said that this year--things would be different.  Don't stay here.More</t>
   </si>
   <si>
+    <t>kittykittybaby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r16201365-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2007,6 +2268,9 @@
     <t>Myself and my two young daughters were in town for a sports competition. Since Travelodge in general has a pretty good reputation we decided to stay at this hotel. When we got there the hotel looked nothing like the picture. It looked like a sleazy hotel you would find in the ghetto. This hotel was not maintained. We were very tired and the room was clean so we decided to stay. At exactly 7:30am a loud fan turned on from the restaurant downstairs. It sounded like a train running in the next room. The walls and the floors in my room were shaking. When I complained to the front desk they were rude to me and told me there wasn't any problems with the room. I had to take them to the room before they would acknowledge there was a problem. They said the problem was taken care of. The next morning at the same time the fans came on. Again the front desk was rude to me and refused to acknowledge the problem. Please don't stay at this hotel. My kids had a very important competition that weekend and we got almost no sleep and were treated very poorly don't take the abuse stay some were else.  Also, there was no pool as advertised. The just had a big hole in the ground were the pool use to be.More</t>
   </si>
   <si>
+    <t>CNW901</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r7953053-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2028,6 +2292,9 @@
     <t>After reading the reviews on this hotel decided to book because of the lower rate.  Making a note to look at the room on arrival before checking in.The man at the front desk was nice, let us see the room, which looked fine.  It's kind of a strange hotel.The elevator is a bit scary and we had to walk to an inside walkway, the floor was cement and the hallway was kind of dark.  Our room was very clean but it had an odor, like a human odor, not sure how to describe it.  We should have looked at another room to see if it had the same odor but were tired.The pool did not have water in it.I'm not sure if I would stay there again.We went to the Margarita Grill and ate on their patio.  Great atmosphere and good food.More</t>
   </si>
   <si>
+    <t>mc01172014b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r6766326-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2046,6 +2313,9 @@
     <t>we stayed at this hotel before setting out of california on a road trip. we needed a place to relax before some surfing the next morning and this is where we crashed. they gave us a goodrate... a lot less than what they originally asked for..plus they gave us the CAA rate because we told them its the canadian version of AAA. oter than that all we did was watch tv in this place and thats it. it was a lot nicer than the other travelodges we stayed at during our road tripMore</t>
   </si>
   <si>
+    <t>deesea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r4597222-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2064,6 +2334,9 @@
     <t>If you're a nonsmoker, stay away from this motel.  We stayed in a supposedly nonsmoking room and it wreaked of cigarrette smoke.  I approached the front desk about the problem but they said it was out of their control.  I kind of doubt that.  We had no choice but stay there since there was no vacancy and going to another hotel would be going out of our budget.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r2810927-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2080,6 +2353,9 @@
   </si>
   <si>
     <t>The hotel doesn't look bad from the outside, but it goes downhill after that. The dumpy hallways and elevator are scary--they look like a great place to be mugged, raped, and/or murdered. The rooms are poorly maintained, and my sheets had numerous burn holes in them. Local phone calls are .25 connection fee, then .08 per minute--a ripoff especially if you need to use the internet. The fridge in the room is nice, but doesn't make up for all the negatives. The worst part is the very high rates--you can stay in nice hotels for the about the same money. Avoid this place.More</t>
+  </si>
+  <si>
+    <t>Airehead</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77678-r2215598-Travelodge_by_Wyndham_Long_Beach_Convention_Center-Long_Beach_California.html</t>
@@ -2638,34 +2914,38 @@
       <c r="A2" t="n">
         <v>7175</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -2682,56 +2962,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7175</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -2753,56 +3037,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7175</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2824,56 +3112,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7175</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2885,56 +3177,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7175</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2952,56 +3248,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7175</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -3023,56 +3323,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7175</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3090,56 +3394,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7175</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3155,54 +3463,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7175</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" t="s">
         <v>120</v>
-      </c>
-      <c r="O10" t="s">
-        <v>112</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3224,56 +3536,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7175</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3291,56 +3607,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7175</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3362,54 +3682,58 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7175</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -3431,56 +3755,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7175</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3492,54 +3820,58 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7175</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -3561,56 +3893,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7175</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3626,54 +3962,58 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7175</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3695,56 +4035,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7175</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3766,54 +4110,58 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7175</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3835,47 +4183,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7175</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
@@ -3892,54 +4244,58 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7175</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3961,56 +4317,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7175</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4026,56 +4386,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7175</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4087,56 +4451,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="X23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="Y23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7175</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4148,56 +4516,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7175</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4209,56 +4581,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7175</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -4276,56 +4652,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="X26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7175</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4337,56 +4717,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7175</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4398,56 +4782,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="X28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7175</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>283</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="K29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4465,56 +4853,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="X29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="Y29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7175</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4526,56 +4918,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="X30" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7175</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4591,56 +4987,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7175</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4656,56 +5056,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X32" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7175</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>318</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="J33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="K33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="O33" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4721,56 +5125,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X33" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7175</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4786,56 +5194,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X34" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7175</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>333</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4851,56 +5263,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X35" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7175</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>341</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="K36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4916,56 +5332,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X36" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7175</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4981,56 +5401,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X37" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7175</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>356</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="O38" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5048,56 +5472,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="X38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7175</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>366</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="K39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="L39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="O39" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5113,41 +5541,45 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="X39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="Y39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7175</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>376</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -5155,10 +5587,10 @@
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="O40" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5179,51 +5611,52 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7175</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>381</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="K41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="L41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="O41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5247,50 +5680,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7175</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>388</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="J42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="K42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="L42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="O42" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5302,56 +5739,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="X42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7175</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5375,50 +5816,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7175</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>404</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="J44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="O44" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -5436,56 +5881,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="X44" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="Y44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7175</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>412</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="J45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="K45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="O45" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5505,50 +5954,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7175</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>419</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="J46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="K46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="O46" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -5566,56 +6019,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="X46" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7175</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>426</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="J47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="K47" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="O47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5633,56 +6090,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="X47" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="Y47" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7175</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>434</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="J48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="K48" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="O48" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5700,56 +6161,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="X48" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="Y48" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7175</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>443</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="J49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="K49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="L49" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="O49" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5767,56 +6232,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="X49" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="Y49" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7175</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>450</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="J50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="K50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="L50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="O50" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5838,41 +6307,45 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="X50" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="Y50" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7175</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>460</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="J51" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5880,10 +6353,10 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5904,51 +6377,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7175</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>465</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="J52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="K52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="L52" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="O52" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5970,56 +6444,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="X52" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="Y52" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>7175</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>473</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="J53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="K53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="L53" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="O53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -6041,54 +6519,58 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="X53" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="Y53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>7175</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>481</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="J54" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="O54" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -6110,47 +6592,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="X54" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="Y54" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>7175</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>486</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="J55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="K55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="L55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
@@ -6177,56 +6663,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="X55" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>7175</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>493</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="J56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6240,50 +6730,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>7175</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>501</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="J57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="K57" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="L57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="O57" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6307,50 +6801,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>7175</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>509</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="J58" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="K58" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="L58" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="O58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6372,56 +6870,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="X58" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="Y58" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>7175</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>519</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="J59" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="K59" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="L59" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="O59" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6445,41 +6947,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>7175</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>527</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="J60" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="K60" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="L60" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
@@ -6508,50 +7014,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>7175</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>533</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="J61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="K61" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="L61" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="O61" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6565,50 +7075,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>7175</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>539</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="J62" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="K62" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="L62" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="O62" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6632,50 +7146,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>7175</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>546</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="J63" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="K63" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="L63" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="O63" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6699,50 +7217,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>7175</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>553</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="J64" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="K64" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="L64" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="O64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6764,56 +7286,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="X64" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="Y64" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>7175</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>562</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="J65" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="K65" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="L65" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="O65" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6835,47 +7361,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="X65" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="Y65" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>7175</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>572</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="J66" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="K66" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="L66" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
@@ -6902,56 +7432,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="X66" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="Y66" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>7175</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>581</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="J67" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="K67" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="L67" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="O67" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6975,50 +7509,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>7175</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>589</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="J68" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="K68" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="L68" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="O68" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7042,50 +7580,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>7175</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>596</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="J69" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="K69" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="L69" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="O69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7107,56 +7649,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X69" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y69" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>7175</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>605</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="J70" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="K70" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="L70" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="O70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7178,56 +7724,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X70" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y70" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>7175</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>613</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="J71" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="K71" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="L71" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="O71" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7251,50 +7801,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>7175</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>620</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="J72" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="K72" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="L72" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="O72" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7318,50 +7872,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>7175</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>627</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="J73" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="K73" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="L73" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="O73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7385,50 +7943,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>7175</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>634</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="J74" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="K74" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="L74" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="O74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7450,50 +8012,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>7175</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>641</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="J75" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="K75" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="L75" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="O75" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7513,50 +8079,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>7175</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>647</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="J76" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="K76" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="L76" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="O76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7574,56 +8144,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X76" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y76" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>7175</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>655</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="J77" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="K77" t="s">
-        <v>583</v>
+        <v>659</v>
       </c>
       <c r="L77" t="s">
-        <v>584</v>
+        <v>660</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="O77" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7641,56 +8215,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X77" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y77" t="s">
-        <v>585</v>
+        <v>661</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>7175</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>662</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="J78" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="K78" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="L78" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="O78" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7710,41 +8288,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>7175</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>669</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="J79" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="K79" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="L79" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
@@ -7771,56 +8353,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X79" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y79" t="s">
-        <v>597</v>
+        <v>675</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>7175</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>676</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="J80" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="K80" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="L80" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
       <c r="O80" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7844,50 +8430,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>7175</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>684</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="J81" t="s">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="K81" t="s">
-        <v>608</v>
+        <v>688</v>
       </c>
       <c r="L81" t="s">
-        <v>609</v>
+        <v>689</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>610</v>
+        <v>690</v>
       </c>
       <c r="O81" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7909,47 +8499,51 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X81" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y81" t="s">
-        <v>611</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>7175</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>692</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="J82" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="K82" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="L82" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
@@ -7978,50 +8572,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>7175</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>698</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="J83" t="s">
-        <v>619</v>
+        <v>701</v>
       </c>
       <c r="K83" t="s">
-        <v>620</v>
+        <v>702</v>
       </c>
       <c r="L83" t="s">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="O83" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -8043,56 +8641,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X83" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y83" t="s">
-        <v>623</v>
+        <v>705</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>7175</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>706</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>624</v>
+        <v>707</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>625</v>
+        <v>708</v>
       </c>
       <c r="J84" t="s">
-        <v>626</v>
+        <v>709</v>
       </c>
       <c r="K84" t="s">
-        <v>627</v>
+        <v>710</v>
       </c>
       <c r="L84" t="s">
-        <v>628</v>
+        <v>711</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>629</v>
+        <v>712</v>
       </c>
       <c r="O84" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8116,50 +8718,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>630</v>
+        <v>713</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>7175</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>714</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>632</v>
+        <v>716</v>
       </c>
       <c r="J85" t="s">
-        <v>633</v>
+        <v>717</v>
       </c>
       <c r="K85" t="s">
-        <v>634</v>
+        <v>718</v>
       </c>
       <c r="L85" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>636</v>
+        <v>720</v>
       </c>
       <c r="O85" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8183,50 +8789,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>7175</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>721</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>637</v>
+        <v>722</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>638</v>
+        <v>723</v>
       </c>
       <c r="J86" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
       <c r="K86" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
       <c r="L86" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>642</v>
+        <v>727</v>
       </c>
       <c r="O86" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8250,50 +8860,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>7175</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>728</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>643</v>
+        <v>729</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>644</v>
+        <v>730</v>
       </c>
       <c r="J87" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="K87" t="s">
-        <v>646</v>
+        <v>732</v>
       </c>
       <c r="L87" t="s">
-        <v>647</v>
+        <v>733</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>648</v>
+        <v>734</v>
       </c>
       <c r="O87" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -8315,56 +8929,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X87" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y87" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>7175</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>736</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>651</v>
+        <v>738</v>
       </c>
       <c r="J88" t="s">
-        <v>652</v>
+        <v>739</v>
       </c>
       <c r="K88" t="s">
-        <v>653</v>
+        <v>740</v>
       </c>
       <c r="L88" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>655</v>
+        <v>742</v>
       </c>
       <c r="O88" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P88" t="n">
         <v>1</v>
@@ -8386,56 +9004,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X88" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y88" t="s">
-        <v>656</v>
+        <v>743</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>7175</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>744</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
       <c r="J89" t="s">
-        <v>659</v>
+        <v>747</v>
       </c>
       <c r="K89" t="s">
-        <v>660</v>
+        <v>748</v>
       </c>
       <c r="L89" t="s">
-        <v>661</v>
+        <v>749</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="O89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8457,47 +9079,51 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X89" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y89" t="s">
-        <v>663</v>
+        <v>751</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>7175</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>752</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>664</v>
+        <v>753</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>665</v>
+        <v>754</v>
       </c>
       <c r="J90" t="s">
-        <v>666</v>
+        <v>755</v>
       </c>
       <c r="K90" t="s">
-        <v>667</v>
+        <v>756</v>
       </c>
       <c r="L90" t="s">
-        <v>668</v>
+        <v>757</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
@@ -8514,47 +9140,51 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X90" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y90" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>7175</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>759</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>670</v>
+        <v>760</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="J91" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="K91" t="s">
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="L91" t="s">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
@@ -8571,47 +9201,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X91" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y91" t="s">
-        <v>675</v>
+        <v>765</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>7175</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>766</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>676</v>
+        <v>767</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>677</v>
+        <v>768</v>
       </c>
       <c r="J92" t="s">
-        <v>678</v>
+        <v>769</v>
       </c>
       <c r="K92" t="s">
-        <v>679</v>
+        <v>770</v>
       </c>
       <c r="L92" t="s">
-        <v>680</v>
+        <v>771</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
@@ -8628,47 +9262,51 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X92" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y92" t="s">
-        <v>681</v>
+        <v>772</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>7175</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>773</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>682</v>
+        <v>774</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>683</v>
+        <v>775</v>
       </c>
       <c r="J93" t="s">
-        <v>684</v>
+        <v>776</v>
       </c>
       <c r="K93" t="s">
-        <v>685</v>
+        <v>777</v>
       </c>
       <c r="L93" t="s">
-        <v>686</v>
+        <v>778</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
@@ -8685,47 +9323,51 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X93" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y93" t="s">
-        <v>687</v>
+        <v>779</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>7175</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>766</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>688</v>
+        <v>780</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>689</v>
+        <v>781</v>
       </c>
       <c r="J94" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
       <c r="K94" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="L94" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
@@ -8742,47 +9384,51 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X94" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y94" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>7175</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>766</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="J95" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="K95" t="s">
-        <v>697</v>
+        <v>789</v>
       </c>
       <c r="L95" t="s">
-        <v>698</v>
+        <v>790</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
@@ -8799,13 +9445,13 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="X95" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="Y95" t="s">
-        <v>699</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
